--- a/Tests/Validation/Maize/Observations/MaizeObservations.xlsx
+++ b/Tests/Validation/Maize/Observations/MaizeObservations.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Observed" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Observed!$A$1:$A$1633</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Observed!$A$1:$AJ$1633</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -806,12 +806,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1121,10 +1124,10 @@
   <dimension ref="A1:BQ1633"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E75" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:BQ1633"/>
+      <selection pane="bottomRight" activeCell="G1281" sqref="G1281"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3425,6 +3428,9 @@
       <c r="D74">
         <v>2020.8</v>
       </c>
+      <c r="H74" s="3">
+        <v>98.4</v>
+      </c>
       <c r="K74">
         <v>4872.3193140000003</v>
       </c>
@@ -3511,6 +3517,13 @@
       <c r="D75">
         <v>767.7</v>
       </c>
+      <c r="G75">
+        <f>H75*U75</f>
+        <v>0.67858379999999996</v>
+      </c>
+      <c r="H75" s="3">
+        <v>111.6</v>
+      </c>
       <c r="K75">
         <v>2053.284181</v>
       </c>
@@ -3594,6 +3607,13 @@
       <c r="D76">
         <v>2442.6999999999998</v>
       </c>
+      <c r="G76">
+        <f>H76*U76</f>
+        <v>0.74290499999999982</v>
+      </c>
+      <c r="H76" s="3">
+        <v>89.999999999999986</v>
+      </c>
       <c r="K76">
         <v>5012.0274069999996</v>
       </c>
@@ -3677,6 +3697,13 @@
       <c r="D77">
         <v>1105.0999999999999</v>
       </c>
+      <c r="G77">
+        <f>H77*U77</f>
+        <v>1.016821</v>
+      </c>
+      <c r="H77" s="3">
+        <v>139.1</v>
+      </c>
       <c r="K77">
         <v>2666.9280370000001</v>
       </c>
@@ -3760,6 +3787,13 @@
       <c r="D78">
         <v>2833.9</v>
       </c>
+      <c r="G78">
+        <f>H78*U78</f>
+        <v>1.898053625</v>
+      </c>
+      <c r="H78" s="3">
+        <v>188.5</v>
+      </c>
       <c r="K78">
         <v>5640.0645649999997</v>
       </c>
@@ -3843,6 +3877,13 @@
       <c r="D79">
         <v>1192.8</v>
       </c>
+      <c r="G79">
+        <f>H79*U79</f>
+        <v>1.1876796000000001</v>
+      </c>
+      <c r="H79" s="3">
+        <v>155.69999999999999</v>
+      </c>
       <c r="K79">
         <v>2965.1934860000001</v>
       </c>
@@ -20739,6 +20780,13 @@
       <c r="D1051">
         <v>53.3</v>
       </c>
+      <c r="G1051">
+        <f>H1051*U1051</f>
+        <v>0</v>
+      </c>
+      <c r="H1051" s="3">
+        <v>0</v>
+      </c>
       <c r="M1051">
         <v>0</v>
       </c>
@@ -21228,6 +21276,13 @@
       <c r="D1066">
         <v>841.9</v>
       </c>
+      <c r="G1066">
+        <f>H1066*U1066</f>
+        <v>9.7554700000000008E-2</v>
+      </c>
+      <c r="H1066" s="3">
+        <v>17.3</v>
+      </c>
       <c r="M1066">
         <v>0</v>
       </c>
@@ -21467,6 +21522,13 @@
       <c r="D1073">
         <v>1421.1</v>
       </c>
+      <c r="G1073">
+        <f>H1073*U1073</f>
+        <v>0.18239239999999998</v>
+      </c>
+      <c r="H1073" s="3">
+        <v>30.4</v>
+      </c>
       <c r="L1073">
         <v>1.4817500000000001E-2</v>
       </c>
@@ -21623,6 +21685,13 @@
       <c r="D1076">
         <v>1779.9</v>
       </c>
+      <c r="G1076">
+        <f>H1076*U1076</f>
+        <v>0.18212414999999998</v>
+      </c>
+      <c r="H1076" s="3">
+        <v>35.4</v>
+      </c>
       <c r="L1076">
         <v>9.4787499999999993E-3</v>
       </c>
@@ -22027,6 +22096,13 @@
       <c r="D1092">
         <v>56.2</v>
       </c>
+      <c r="G1092">
+        <f>H1092*U1092</f>
+        <v>0</v>
+      </c>
+      <c r="H1092" s="3">
+        <v>0</v>
+      </c>
       <c r="M1092">
         <v>0</v>
       </c>
@@ -22552,6 +22628,13 @@
       <c r="D1107">
         <v>543.5</v>
       </c>
+      <c r="G1107">
+        <f>H1107*U1107</f>
+        <v>0.23437419999999998</v>
+      </c>
+      <c r="H1107" s="3">
+        <v>48.8</v>
+      </c>
       <c r="M1107">
         <v>0</v>
       </c>
@@ -22791,6 +22874,13 @@
       <c r="D1114">
         <v>685.1</v>
       </c>
+      <c r="G1114">
+        <f>H1114*U1114</f>
+        <v>0.30068690000000003</v>
+      </c>
+      <c r="H1114" s="3">
+        <v>70.900000000000006</v>
+      </c>
       <c r="L1114">
         <v>1.45275E-2</v>
       </c>
@@ -22935,6 +23025,13 @@
       <c r="D1117">
         <v>795.4</v>
       </c>
+      <c r="G1117">
+        <f>H1117*U1117</f>
+        <v>0.30265229999999999</v>
+      </c>
+      <c r="H1117" s="3">
+        <v>70.8</v>
+      </c>
       <c r="L1117">
         <v>8.2565E-3</v>
       </c>
@@ -23339,6 +23436,13 @@
       <c r="D1133">
         <v>58.05</v>
       </c>
+      <c r="G1133">
+        <f>H1133*U1133</f>
+        <v>0</v>
+      </c>
+      <c r="H1133" s="3">
+        <v>0</v>
+      </c>
       <c r="M1133">
         <v>0</v>
       </c>
@@ -23840,6 +23944,13 @@
       <c r="D1148">
         <v>1100</v>
       </c>
+      <c r="G1148">
+        <f>H1148*U1148</f>
+        <v>9.2931299999999994E-2</v>
+      </c>
+      <c r="H1148" s="3">
+        <v>15.4</v>
+      </c>
       <c r="M1148">
         <v>0</v>
       </c>
@@ -24079,6 +24190,13 @@
       <c r="D1155">
         <v>1886</v>
       </c>
+      <c r="G1155">
+        <f>H1155*U1155</f>
+        <v>0.15641677499999998</v>
+      </c>
+      <c r="H1155" s="3">
+        <v>26.9</v>
+      </c>
       <c r="L1155">
         <v>1.57225E-2</v>
       </c>
@@ -24223,6 +24341,13 @@
       <c r="D1158">
         <v>2445.9299999999998</v>
       </c>
+      <c r="G1158">
+        <f>H1158*U1158</f>
+        <v>0.15839745</v>
+      </c>
+      <c r="H1158" s="3">
+        <v>27.8</v>
+      </c>
       <c r="L1158">
         <v>1.0737500000000001E-2</v>
       </c>
@@ -24627,6 +24752,13 @@
       <c r="D1174">
         <v>71.900000000000006</v>
       </c>
+      <c r="G1174">
+        <f>H1174*U1174</f>
+        <v>0</v>
+      </c>
+      <c r="H1174" s="3">
+        <v>0</v>
+      </c>
       <c r="M1174">
         <v>0</v>
       </c>
@@ -25140,6 +25272,13 @@
       <c r="D1189">
         <v>640.1</v>
       </c>
+      <c r="G1189">
+        <f>H1189*U1189</f>
+        <v>0.2056306</v>
+      </c>
+      <c r="H1189" s="3">
+        <v>38.200000000000003</v>
+      </c>
       <c r="M1189">
         <v>0</v>
       </c>
@@ -25379,6 +25518,13 @@
       <c r="D1196">
         <v>918.3</v>
       </c>
+      <c r="G1196">
+        <f>H1196*U1196</f>
+        <v>0.29001885000000005</v>
+      </c>
+      <c r="H1196" s="3">
+        <v>62.7</v>
+      </c>
       <c r="L1196">
         <v>1.4907500000000001E-2</v>
       </c>
@@ -25523,6 +25669,13 @@
       <c r="D1199">
         <v>1045.8800000000001</v>
       </c>
+      <c r="G1199">
+        <f>H1199*U1199</f>
+        <v>0.49520269999999994</v>
+      </c>
+      <c r="H1199" s="3">
+        <v>99.1</v>
+      </c>
       <c r="L1199">
         <v>9.9885000000000009E-3</v>
       </c>
@@ -25927,6 +26080,13 @@
       <c r="D1215">
         <v>67.5</v>
       </c>
+      <c r="G1215">
+        <f>H1215*U1215</f>
+        <v>0</v>
+      </c>
+      <c r="H1215" s="3">
+        <v>0</v>
+      </c>
       <c r="M1215">
         <v>0</v>
       </c>
@@ -26416,6 +26576,13 @@
       <c r="D1230">
         <v>1256.8</v>
       </c>
+      <c r="G1230">
+        <f>H1230*U1230</f>
+        <v>6.0058663999999998E-2</v>
+      </c>
+      <c r="H1230" s="3">
+        <v>8</v>
+      </c>
       <c r="M1230">
         <v>0</v>
       </c>
@@ -26655,6 +26822,13 @@
       <c r="D1237">
         <v>2181.3000000000002</v>
       </c>
+      <c r="G1237">
+        <f>H1237*U1237</f>
+        <v>7.895474999999999E-2</v>
+      </c>
+      <c r="H1237" s="3">
+        <v>8.1</v>
+      </c>
       <c r="L1237">
         <v>1.9025E-2</v>
       </c>
@@ -26799,6 +26973,13 @@
       <c r="D1240">
         <v>2695.5</v>
       </c>
+      <c r="G1240">
+        <f>H1240*U1240</f>
+        <v>2.77389E-2</v>
+      </c>
+      <c r="H1240" s="3">
+        <v>5.0999999999999996</v>
+      </c>
       <c r="L1240">
         <v>1.2607500000000001E-2</v>
       </c>
@@ -27203,6 +27384,13 @@
       <c r="D1256">
         <v>68.349999999999994</v>
       </c>
+      <c r="G1256">
+        <f>H1256*U1256</f>
+        <v>0</v>
+      </c>
+      <c r="H1256" s="3">
+        <v>0</v>
+      </c>
       <c r="M1256">
         <v>0</v>
       </c>
@@ -27704,6 +27892,13 @@
       <c r="D1271">
         <v>756.8</v>
       </c>
+      <c r="G1271">
+        <f>H1271*U1271</f>
+        <v>0.28058135000000001</v>
+      </c>
+      <c r="H1271" s="3">
+        <v>49.7</v>
+      </c>
       <c r="M1271">
         <v>0</v>
       </c>
@@ -27943,6 +28138,13 @@
       <c r="D1278">
         <v>982.9</v>
       </c>
+      <c r="G1278">
+        <f>H1278*U1278</f>
+        <v>0.32830417499999992</v>
+      </c>
+      <c r="H1278" s="3">
+        <v>64.099999999999994</v>
+      </c>
       <c r="L1278">
         <v>1.5727499999999998E-2</v>
       </c>
@@ -28086,6 +28288,13 @@
       </c>
       <c r="D1281">
         <v>1077.08</v>
+      </c>
+      <c r="G1281">
+        <f>H1281*U1281</f>
+        <v>0.35764750000000001</v>
+      </c>
+      <c r="H1281" s="3">
+        <v>76.400000000000006</v>
       </c>
       <c r="L1281">
         <v>9.3257500000000007E-3</v>

--- a/Tests/Validation/Maize/Observations/MaizeObservations.xlsx
+++ b/Tests/Validation/Maize/Observations/MaizeObservations.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2325" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2326" uniqueCount="245">
   <si>
     <t>AreaLargestLeaf</t>
   </si>
@@ -756,6 +756,9 @@
   <si>
     <t>Maize.Stem+Spike.Wt</t>
   </si>
+  <si>
+    <t>NodesStartedSenescing</t>
+  </si>
 </sst>
 </file>
 
@@ -1138,10 +1141,10 @@
   <dimension ref="A1:BU1635"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AH1066" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="BP74" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AO1189" sqref="AO1189"/>
+      <selection pane="bottomRight" activeCell="BU74" sqref="BU74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1367,7 +1370,9 @@
       <c r="BT1" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="BU1" s="1"/>
+      <c r="BU1" s="1" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="2" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -3586,7 +3591,7 @@
         <v>3.14</v>
       </c>
     </row>
-    <row r="74" spans="1:70" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>111</v>
       </c>
@@ -3690,7 +3695,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="75" spans="1:70" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>112</v>
       </c>
@@ -3794,7 +3799,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="76" spans="1:70" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>113</v>
       </c>
@@ -3898,7 +3903,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:70" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>114</v>
       </c>
@@ -4002,7 +4007,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:70" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>115</v>
       </c>
@@ -4106,7 +4111,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="79" spans="1:70" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>116</v>
       </c>
@@ -22662,7 +22667,7 @@
         <v>469.8</v>
       </c>
     </row>
-    <row r="1039" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1039" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A1039" t="s">
         <v>111</v>
       </c>
@@ -22675,7 +22680,7 @@
       <c r="AE1039" s="2"/>
       <c r="AK1039" s="2"/>
     </row>
-    <row r="1040" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1040" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A1040" t="s">
         <v>111</v>
       </c>
@@ -22688,7 +22693,7 @@
       <c r="AE1040" s="2"/>
       <c r="AK1040" s="2"/>
     </row>
-    <row r="1041" spans="1:63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1041" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1041" t="s">
         <v>111</v>
       </c>
@@ -22701,7 +22706,7 @@
       <c r="AE1041" s="2"/>
       <c r="AK1041" s="2"/>
     </row>
-    <row r="1042" spans="1:63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1042" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1042" t="s">
         <v>111</v>
       </c>
@@ -22714,7 +22719,7 @@
       <c r="AE1042" s="2"/>
       <c r="AK1042" s="2"/>
     </row>
-    <row r="1043" spans="1:63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1043" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1043" t="s">
         <v>111</v>
       </c>
@@ -22727,7 +22732,7 @@
       <c r="AE1043" s="2"/>
       <c r="AK1043" s="2"/>
     </row>
-    <row r="1044" spans="1:63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1044" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1044" t="s">
         <v>111</v>
       </c>
@@ -22743,7 +22748,7 @@
       <c r="AE1044" s="2"/>
       <c r="AK1044" s="2"/>
     </row>
-    <row r="1045" spans="1:63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1045" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1045" t="s">
         <v>111</v>
       </c>
@@ -22810,7 +22815,7 @@
         <v>38.799999999999997</v>
       </c>
     </row>
-    <row r="1046" spans="1:63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1046" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1046" t="s">
         <v>111</v>
       </c>
@@ -22826,7 +22831,7 @@
       <c r="AE1046" s="2"/>
       <c r="AK1046" s="2"/>
     </row>
-    <row r="1047" spans="1:63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1047" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1047" t="s">
         <v>111</v>
       </c>
@@ -22839,7 +22844,7 @@
       <c r="AE1047" s="2"/>
       <c r="AK1047" s="2"/>
     </row>
-    <row r="1048" spans="1:63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1048" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1048" t="s">
         <v>111</v>
       </c>
@@ -22855,7 +22860,7 @@
       <c r="AE1048" s="2"/>
       <c r="AK1048" s="2"/>
     </row>
-    <row r="1049" spans="1:63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1049" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1049" t="s">
         <v>111</v>
       </c>
@@ -22868,7 +22873,7 @@
       <c r="AE1049" s="2"/>
       <c r="AK1049" s="2"/>
     </row>
-    <row r="1050" spans="1:63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1050" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1050" t="s">
         <v>111</v>
       </c>
@@ -22884,7 +22889,7 @@
       <c r="AE1050" s="2"/>
       <c r="AK1050" s="2"/>
     </row>
-    <row r="1051" spans="1:63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1051" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1051" t="s">
         <v>111</v>
       </c>
@@ -22958,7 +22963,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="1052" spans="1:63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1052" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1052" t="s">
         <v>111</v>
       </c>
@@ -22974,7 +22979,7 @@
       <c r="AE1052" s="2"/>
       <c r="AK1052" s="2"/>
     </row>
-    <row r="1053" spans="1:63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1053" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1053" t="s">
         <v>111</v>
       </c>
@@ -23038,7 +23043,7 @@
         <v>38.75</v>
       </c>
     </row>
-    <row r="1054" spans="1:63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1054" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1054" t="s">
         <v>111</v>
       </c>
@@ -23105,7 +23110,7 @@
         <v>39.5</v>
       </c>
     </row>
-    <row r="1055" spans="1:63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1055" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1055" t="s">
         <v>111</v>
       </c>
@@ -23118,7 +23123,7 @@
       <c r="AE1055" s="2"/>
       <c r="AK1055" s="2"/>
     </row>
-    <row r="1056" spans="1:63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1056" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1056" t="s">
         <v>111</v>
       </c>
@@ -23185,7 +23190,7 @@
         <v>39.65</v>
       </c>
     </row>
-    <row r="1057" spans="1:72" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1057" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A1057" t="s">
         <v>111</v>
       </c>
@@ -23204,7 +23209,7 @@
       <c r="AE1057" s="2"/>
       <c r="AK1057" s="2"/>
     </row>
-    <row r="1058" spans="1:72" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1058" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A1058" t="s">
         <v>111</v>
       </c>
@@ -23217,7 +23222,7 @@
       <c r="AE1058" s="2"/>
       <c r="AK1058" s="2"/>
     </row>
-    <row r="1059" spans="1:72" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1059" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A1059" t="s">
         <v>111</v>
       </c>
@@ -23233,7 +23238,7 @@
       <c r="AE1059" s="2"/>
       <c r="AK1059" s="2"/>
     </row>
-    <row r="1060" spans="1:72" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1060" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A1060" t="s">
         <v>111</v>
       </c>
@@ -23297,7 +23302,7 @@
         <v>39.9</v>
       </c>
     </row>
-    <row r="1061" spans="1:72" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1061" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A1061" t="s">
         <v>111</v>
       </c>
@@ -23310,7 +23315,7 @@
       <c r="AE1061" s="2"/>
       <c r="AK1061" s="2"/>
     </row>
-    <row r="1062" spans="1:72" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1062" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A1062" t="s">
         <v>111</v>
       </c>
@@ -23323,7 +23328,7 @@
       <c r="AE1062" s="2"/>
       <c r="AK1062" s="2"/>
     </row>
-    <row r="1063" spans="1:72" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1063" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A1063" t="s">
         <v>111</v>
       </c>
@@ -23339,7 +23344,7 @@
       <c r="AE1063" s="2"/>
       <c r="AK1063" s="2"/>
     </row>
-    <row r="1064" spans="1:72" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1064" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A1064" t="s">
         <v>111</v>
       </c>
@@ -23403,7 +23408,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="1065" spans="1:72" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1065" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A1065" t="s">
         <v>111</v>
       </c>
@@ -23520,7 +23525,7 @@
         <v>611.1</v>
       </c>
     </row>
-    <row r="1067" spans="1:72" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1067" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A1067" t="s">
         <v>111</v>
       </c>
@@ -23539,7 +23544,7 @@
       <c r="AE1067" s="2"/>
       <c r="AK1067" s="2"/>
     </row>
-    <row r="1068" spans="1:72" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1068" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A1068" t="s">
         <v>111</v>
       </c>
@@ -23552,7 +23557,7 @@
       <c r="AE1068" s="2"/>
       <c r="AK1068" s="2"/>
     </row>
-    <row r="1069" spans="1:72" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1069" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A1069" t="s">
         <v>111</v>
       </c>
@@ -23568,7 +23573,7 @@
       <c r="AE1069" s="2"/>
       <c r="AK1069" s="2"/>
     </row>
-    <row r="1070" spans="1:72" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1070" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A1070" t="s">
         <v>111</v>
       </c>
@@ -23632,7 +23637,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="1071" spans="1:72" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1071" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A1071" t="s">
         <v>111</v>
       </c>
@@ -23696,7 +23701,7 @@
         <v>38.799999999999997</v>
       </c>
     </row>
-    <row r="1072" spans="1:72" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1072" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A1072" t="s">
         <v>111</v>
       </c>
@@ -23801,7 +23806,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="1074" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1074" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A1074" t="s">
         <v>111</v>
       </c>
@@ -23865,7 +23870,7 @@
         <v>39.200000000000003</v>
       </c>
     </row>
-    <row r="1075" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1075" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A1075" t="s">
         <v>111</v>
       </c>
@@ -23890,7 +23895,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="1076" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1076" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A1076" t="s">
         <v>111</v>
       </c>
@@ -23982,7 +23987,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="1077" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1077" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A1077" t="s">
         <v>111</v>
       </c>
@@ -24046,7 +24051,7 @@
         <v>38.65</v>
       </c>
     </row>
-    <row r="1078" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1078" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A1078" t="s">
         <v>111</v>
       </c>
@@ -24110,7 +24115,7 @@
         <v>38.799999999999997</v>
       </c>
     </row>
-    <row r="1079" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1079" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A1079" t="s">
         <v>111</v>
       </c>
@@ -24123,7 +24128,7 @@
       <c r="AE1079" s="2"/>
       <c r="AK1079" s="2"/>
     </row>
-    <row r="1080" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1080" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A1080" t="s">
         <v>112</v>
       </c>
@@ -24136,7 +24141,7 @@
       <c r="AE1080" s="2"/>
       <c r="AK1080" s="2"/>
     </row>
-    <row r="1081" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1081" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A1081" t="s">
         <v>112</v>
       </c>
@@ -24149,7 +24154,7 @@
       <c r="AE1081" s="2"/>
       <c r="AK1081" s="2"/>
     </row>
-    <row r="1082" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1082" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A1082" t="s">
         <v>112</v>
       </c>
@@ -24162,7 +24167,7 @@
       <c r="AE1082" s="2"/>
       <c r="AK1082" s="2"/>
     </row>
-    <row r="1083" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1083" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A1083" t="s">
         <v>112</v>
       </c>
@@ -24175,7 +24180,7 @@
       <c r="AE1083" s="2"/>
       <c r="AK1083" s="2"/>
     </row>
-    <row r="1084" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1084" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A1084" t="s">
         <v>112</v>
       </c>
@@ -24188,7 +24193,7 @@
       <c r="AE1084" s="2"/>
       <c r="AK1084" s="2"/>
     </row>
-    <row r="1085" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1085" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A1085" t="s">
         <v>112</v>
       </c>
@@ -24204,7 +24209,7 @@
       <c r="AE1085" s="2"/>
       <c r="AK1085" s="2"/>
     </row>
-    <row r="1086" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1086" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A1086" t="s">
         <v>112</v>
       </c>
@@ -24271,7 +24276,7 @@
         <v>45.25</v>
       </c>
     </row>
-    <row r="1087" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1087" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A1087" t="s">
         <v>112</v>
       </c>
@@ -24287,7 +24292,7 @@
       <c r="AE1087" s="2"/>
       <c r="AK1087" s="2"/>
     </row>
-    <row r="1088" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1088" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A1088" t="s">
         <v>112</v>
       </c>
@@ -24300,7 +24305,7 @@
       <c r="AE1088" s="2"/>
       <c r="AK1088" s="2"/>
     </row>
-    <row r="1089" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1089" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A1089" t="s">
         <v>112</v>
       </c>
@@ -24316,7 +24321,7 @@
       <c r="AE1089" s="2"/>
       <c r="AK1089" s="2"/>
     </row>
-    <row r="1090" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1090" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A1090" t="s">
         <v>112</v>
       </c>
@@ -24329,7 +24334,7 @@
       <c r="AE1090" s="2"/>
       <c r="AK1090" s="2"/>
     </row>
-    <row r="1091" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1091" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A1091" t="s">
         <v>112</v>
       </c>
@@ -24345,7 +24350,7 @@
       <c r="AE1091" s="2"/>
       <c r="AK1091" s="2"/>
     </row>
-    <row r="1092" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1092" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A1092" t="s">
         <v>112</v>
       </c>
@@ -24419,7 +24424,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="1093" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1093" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A1093" t="s">
         <v>112</v>
       </c>
@@ -24435,7 +24440,7 @@
       <c r="AE1093" s="2"/>
       <c r="AK1093" s="2"/>
     </row>
-    <row r="1094" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1094" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A1094" t="s">
         <v>112</v>
       </c>
@@ -24499,7 +24504,7 @@
         <v>42.95</v>
       </c>
     </row>
-    <row r="1095" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1095" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A1095" t="s">
         <v>112</v>
       </c>
@@ -24578,7 +24583,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="1096" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1096" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A1096" t="s">
         <v>112</v>
       </c>
@@ -24591,7 +24596,7 @@
       <c r="AE1096" s="2"/>
       <c r="AK1096" s="2"/>
     </row>
-    <row r="1097" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1097" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A1097" t="s">
         <v>112</v>
       </c>
@@ -24670,7 +24675,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="1098" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1098" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A1098" t="s">
         <v>112</v>
       </c>
@@ -24689,7 +24694,7 @@
       <c r="AE1098" s="2"/>
       <c r="AK1098" s="2"/>
     </row>
-    <row r="1099" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1099" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A1099" t="s">
         <v>112</v>
       </c>
@@ -24702,7 +24707,7 @@
       <c r="AE1099" s="2"/>
       <c r="AK1099" s="2"/>
     </row>
-    <row r="1100" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1100" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A1100" t="s">
         <v>112</v>
       </c>
@@ -24718,7 +24723,7 @@
       <c r="AE1100" s="2"/>
       <c r="AK1100" s="2"/>
     </row>
-    <row r="1101" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1101" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A1101" t="s">
         <v>112</v>
       </c>
@@ -24782,7 +24787,7 @@
         <v>42.25</v>
       </c>
     </row>
-    <row r="1102" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1102" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A1102" t="s">
         <v>112</v>
       </c>
@@ -24795,7 +24800,7 @@
       <c r="AE1102" s="2"/>
       <c r="AK1102" s="2"/>
     </row>
-    <row r="1103" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1103" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A1103" t="s">
         <v>112</v>
       </c>
@@ -24808,7 +24813,7 @@
       <c r="AE1103" s="2"/>
       <c r="AK1103" s="2"/>
     </row>
-    <row r="1104" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1104" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A1104" t="s">
         <v>112</v>
       </c>
@@ -24824,7 +24829,7 @@
       <c r="AE1104" s="2"/>
       <c r="AK1104" s="2"/>
     </row>
-    <row r="1105" spans="1:72" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1105" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A1105" t="s">
         <v>112</v>
       </c>
@@ -24900,7 +24905,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="1106" spans="1:72" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1106" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A1106" t="s">
         <v>112</v>
       </c>
@@ -25017,7 +25022,7 @@
         <v>362.7</v>
       </c>
     </row>
-    <row r="1108" spans="1:72" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1108" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A1108" t="s">
         <v>112</v>
       </c>
@@ -25036,7 +25041,7 @@
       <c r="AE1108" s="2"/>
       <c r="AK1108" s="2"/>
     </row>
-    <row r="1109" spans="1:72" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1109" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A1109" t="s">
         <v>112</v>
       </c>
@@ -25049,7 +25054,7 @@
       <c r="AE1109" s="2"/>
       <c r="AK1109" s="2"/>
     </row>
-    <row r="1110" spans="1:72" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1110" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A1110" t="s">
         <v>112</v>
       </c>
@@ -25065,7 +25070,7 @@
       <c r="AE1110" s="2"/>
       <c r="AK1110" s="2"/>
     </row>
-    <row r="1111" spans="1:72" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1111" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A1111" t="s">
         <v>112</v>
       </c>
@@ -25129,7 +25134,7 @@
         <v>42.2</v>
       </c>
     </row>
-    <row r="1112" spans="1:72" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1112" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A1112" t="s">
         <v>112</v>
       </c>
@@ -25193,7 +25198,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="1113" spans="1:72" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1113" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A1113" t="s">
         <v>112</v>
       </c>
@@ -25298,7 +25303,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="1115" spans="1:72" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1115" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A1115" t="s">
         <v>112</v>
       </c>
@@ -25362,7 +25367,7 @@
         <v>41.4</v>
       </c>
     </row>
-    <row r="1116" spans="1:72" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1116" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A1116" t="s">
         <v>112</v>
       </c>
@@ -25375,7 +25380,7 @@
       <c r="AE1116" s="2"/>
       <c r="AK1116" s="2"/>
     </row>
-    <row r="1117" spans="1:72" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1117" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A1117" t="s">
         <v>112</v>
       </c>
@@ -25467,7 +25472,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="1118" spans="1:72" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1118" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A1118" t="s">
         <v>112</v>
       </c>
@@ -25531,7 +25536,7 @@
         <v>40.450000000000003</v>
       </c>
     </row>
-    <row r="1119" spans="1:72" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1119" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A1119" t="s">
         <v>112</v>
       </c>
@@ -25595,7 +25600,7 @@
         <v>40.4</v>
       </c>
     </row>
-    <row r="1120" spans="1:72" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1120" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A1120" t="s">
         <v>112</v>
       </c>
@@ -25608,7 +25613,7 @@
       <c r="AE1120" s="2"/>
       <c r="AK1120" s="2"/>
     </row>
-    <row r="1121" spans="1:63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1121" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1121" t="s">
         <v>113</v>
       </c>
@@ -25621,7 +25626,7 @@
       <c r="AE1121" s="2"/>
       <c r="AK1121" s="2"/>
     </row>
-    <row r="1122" spans="1:63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1122" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1122" t="s">
         <v>113</v>
       </c>
@@ -25634,7 +25639,7 @@
       <c r="AE1122" s="2"/>
       <c r="AK1122" s="2"/>
     </row>
-    <row r="1123" spans="1:63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1123" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1123" t="s">
         <v>113</v>
       </c>
@@ -25647,7 +25652,7 @@
       <c r="AE1123" s="2"/>
       <c r="AK1123" s="2"/>
     </row>
-    <row r="1124" spans="1:63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1124" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1124" t="s">
         <v>113</v>
       </c>
@@ -25660,7 +25665,7 @@
       <c r="AE1124" s="2"/>
       <c r="AK1124" s="2"/>
     </row>
-    <row r="1125" spans="1:63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1125" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1125" t="s">
         <v>113</v>
       </c>
@@ -25673,7 +25678,7 @@
       <c r="AE1125" s="2"/>
       <c r="AK1125" s="2"/>
     </row>
-    <row r="1126" spans="1:63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1126" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1126" t="s">
         <v>113</v>
       </c>
@@ -25689,7 +25694,7 @@
       <c r="AE1126" s="2"/>
       <c r="AK1126" s="2"/>
     </row>
-    <row r="1127" spans="1:63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1127" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1127" t="s">
         <v>113</v>
       </c>
@@ -25756,7 +25761,7 @@
         <v>35.5</v>
       </c>
     </row>
-    <row r="1128" spans="1:63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1128" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1128" t="s">
         <v>113</v>
       </c>
@@ -25772,7 +25777,7 @@
       <c r="AE1128" s="2"/>
       <c r="AK1128" s="2"/>
     </row>
-    <row r="1129" spans="1:63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1129" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1129" t="s">
         <v>113</v>
       </c>
@@ -25785,7 +25790,7 @@
       <c r="AE1129" s="2"/>
       <c r="AK1129" s="2"/>
     </row>
-    <row r="1130" spans="1:63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1130" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1130" t="s">
         <v>113</v>
       </c>
@@ -25801,7 +25806,7 @@
       <c r="AE1130" s="2"/>
       <c r="AK1130" s="2"/>
     </row>
-    <row r="1131" spans="1:63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1131" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1131" t="s">
         <v>113</v>
       </c>
@@ -25814,7 +25819,7 @@
       <c r="AE1131" s="2"/>
       <c r="AK1131" s="2"/>
     </row>
-    <row r="1132" spans="1:63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1132" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1132" t="s">
         <v>113</v>
       </c>
@@ -25830,7 +25835,7 @@
       <c r="AE1132" s="2"/>
       <c r="AK1132" s="2"/>
     </row>
-    <row r="1133" spans="1:63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1133" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1133" t="s">
         <v>113</v>
       </c>
@@ -25904,7 +25909,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="1134" spans="1:63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1134" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1134" t="s">
         <v>113</v>
       </c>
@@ -25920,7 +25925,7 @@
       <c r="AE1134" s="2"/>
       <c r="AK1134" s="2"/>
     </row>
-    <row r="1135" spans="1:63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1135" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1135" t="s">
         <v>113</v>
       </c>
@@ -25984,7 +25989,7 @@
         <v>35.85</v>
       </c>
     </row>
-    <row r="1136" spans="1:63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1136" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1136" t="s">
         <v>113</v>
       </c>
@@ -26051,7 +26056,7 @@
         <v>35.700000000000003</v>
       </c>
     </row>
-    <row r="1137" spans="1:72" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1137" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A1137" t="s">
         <v>113</v>
       </c>
@@ -26064,7 +26069,7 @@
       <c r="AE1137" s="2"/>
       <c r="AK1137" s="2"/>
     </row>
-    <row r="1138" spans="1:72" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1138" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A1138" t="s">
         <v>113</v>
       </c>
@@ -26131,7 +26136,7 @@
         <v>35.6</v>
       </c>
     </row>
-    <row r="1139" spans="1:72" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1139" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A1139" t="s">
         <v>113</v>
       </c>
@@ -26150,7 +26155,7 @@
       <c r="AE1139" s="2"/>
       <c r="AK1139" s="2"/>
     </row>
-    <row r="1140" spans="1:72" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1140" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A1140" t="s">
         <v>113</v>
       </c>
@@ -26163,7 +26168,7 @@
       <c r="AE1140" s="2"/>
       <c r="AK1140" s="2"/>
     </row>
-    <row r="1141" spans="1:72" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1141" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A1141" t="s">
         <v>113</v>
       </c>
@@ -26179,7 +26184,7 @@
       <c r="AE1141" s="2"/>
       <c r="AK1141" s="2"/>
     </row>
-    <row r="1142" spans="1:72" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1142" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A1142" t="s">
         <v>113</v>
       </c>
@@ -26255,7 +26260,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="1143" spans="1:72" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1143" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A1143" t="s">
         <v>113</v>
       </c>
@@ -26268,7 +26273,7 @@
       <c r="AE1143" s="2"/>
       <c r="AK1143" s="2"/>
     </row>
-    <row r="1144" spans="1:72" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1144" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A1144" t="s">
         <v>113</v>
       </c>
@@ -26281,7 +26286,7 @@
       <c r="AE1144" s="2"/>
       <c r="AK1144" s="2"/>
     </row>
-    <row r="1145" spans="1:72" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1145" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A1145" t="s">
         <v>113</v>
       </c>
@@ -26297,7 +26302,7 @@
       <c r="AE1145" s="2"/>
       <c r="AK1145" s="2"/>
     </row>
-    <row r="1146" spans="1:72" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1146" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A1146" t="s">
         <v>113</v>
       </c>
@@ -26361,7 +26366,7 @@
         <v>34.9</v>
       </c>
     </row>
-    <row r="1147" spans="1:72" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1147" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A1147" t="s">
         <v>113</v>
       </c>
@@ -26478,7 +26483,7 @@
         <v>812.2</v>
       </c>
     </row>
-    <row r="1149" spans="1:72" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1149" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A1149" t="s">
         <v>113</v>
       </c>
@@ -26497,7 +26502,7 @@
       <c r="AE1149" s="2"/>
       <c r="AK1149" s="2"/>
     </row>
-    <row r="1150" spans="1:72" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1150" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A1150" t="s">
         <v>113</v>
       </c>
@@ -26510,7 +26515,7 @@
       <c r="AE1150" s="2"/>
       <c r="AK1150" s="2"/>
     </row>
-    <row r="1151" spans="1:72" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1151" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A1151" t="s">
         <v>113</v>
       </c>
@@ -26526,7 +26531,7 @@
       <c r="AE1151" s="2"/>
       <c r="AK1151" s="2"/>
     </row>
-    <row r="1152" spans="1:72" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1152" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A1152" t="s">
         <v>113</v>
       </c>
@@ -26590,7 +26595,7 @@
         <v>34.799999999999997</v>
       </c>
     </row>
-    <row r="1153" spans="1:63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1153" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1153" t="s">
         <v>113</v>
       </c>
@@ -26654,7 +26659,7 @@
         <v>34.15</v>
       </c>
     </row>
-    <row r="1154" spans="1:63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1154" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1154" t="s">
         <v>113</v>
       </c>
@@ -26759,7 +26764,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="1156" spans="1:63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1156" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1156" t="s">
         <v>113</v>
       </c>
@@ -26823,7 +26828,7 @@
         <v>33.450000000000003</v>
       </c>
     </row>
-    <row r="1157" spans="1:63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1157" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1157" t="s">
         <v>113</v>
       </c>
@@ -26836,7 +26841,7 @@
       <c r="AE1157" s="2"/>
       <c r="AK1157" s="2"/>
     </row>
-    <row r="1158" spans="1:63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1158" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1158" t="s">
         <v>113</v>
       </c>
@@ -26928,7 +26933,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="1159" spans="1:63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1159" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1159" t="s">
         <v>113</v>
       </c>
@@ -26992,7 +26997,7 @@
         <v>32.549999999999997</v>
       </c>
     </row>
-    <row r="1160" spans="1:63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1160" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1160" t="s">
         <v>113</v>
       </c>
@@ -27056,7 +27061,7 @@
         <v>32.1</v>
       </c>
     </row>
-    <row r="1161" spans="1:63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1161" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1161" t="s">
         <v>113</v>
       </c>
@@ -27069,7 +27074,7 @@
       <c r="AE1161" s="2"/>
       <c r="AK1161" s="2"/>
     </row>
-    <row r="1162" spans="1:63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1162" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1162" t="s">
         <v>114</v>
       </c>
@@ -27082,7 +27087,7 @@
       <c r="AE1162" s="2"/>
       <c r="AK1162" s="2"/>
     </row>
-    <row r="1163" spans="1:63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1163" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1163" t="s">
         <v>114</v>
       </c>
@@ -27095,7 +27100,7 @@
       <c r="AE1163" s="2"/>
       <c r="AK1163" s="2"/>
     </row>
-    <row r="1164" spans="1:63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1164" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1164" t="s">
         <v>114</v>
       </c>
@@ -27108,7 +27113,7 @@
       <c r="AE1164" s="2"/>
       <c r="AK1164" s="2"/>
     </row>
-    <row r="1165" spans="1:63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1165" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1165" t="s">
         <v>114</v>
       </c>
@@ -27121,7 +27126,7 @@
       <c r="AE1165" s="2"/>
       <c r="AK1165" s="2"/>
     </row>
-    <row r="1166" spans="1:63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1166" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1166" t="s">
         <v>114</v>
       </c>
@@ -27134,7 +27139,7 @@
       <c r="AE1166" s="2"/>
       <c r="AK1166" s="2"/>
     </row>
-    <row r="1167" spans="1:63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1167" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1167" t="s">
         <v>114</v>
       </c>
@@ -27150,7 +27155,7 @@
       <c r="AE1167" s="2"/>
       <c r="AK1167" s="2"/>
     </row>
-    <row r="1168" spans="1:63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1168" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1168" t="s">
         <v>114</v>
       </c>
@@ -27217,7 +27222,7 @@
         <v>38.450000000000003</v>
       </c>
     </row>
-    <row r="1169" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1169" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A1169" t="s">
         <v>114</v>
       </c>
@@ -27233,7 +27238,7 @@
       <c r="AE1169" s="2"/>
       <c r="AK1169" s="2"/>
     </row>
-    <row r="1170" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1170" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A1170" t="s">
         <v>114</v>
       </c>
@@ -27246,7 +27251,7 @@
       <c r="AE1170" s="2"/>
       <c r="AK1170" s="2"/>
     </row>
-    <row r="1171" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1171" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A1171" t="s">
         <v>114</v>
       </c>
@@ -27262,7 +27267,7 @@
       <c r="AE1171" s="2"/>
       <c r="AK1171" s="2"/>
     </row>
-    <row r="1172" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1172" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A1172" t="s">
         <v>114</v>
       </c>
@@ -27275,7 +27280,7 @@
       <c r="AE1172" s="2"/>
       <c r="AK1172" s="2"/>
     </row>
-    <row r="1173" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1173" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A1173" t="s">
         <v>114</v>
       </c>
@@ -27291,7 +27296,7 @@
       <c r="AE1173" s="2"/>
       <c r="AK1173" s="2"/>
     </row>
-    <row r="1174" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1174" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A1174" t="s">
         <v>114</v>
       </c>
@@ -27365,7 +27370,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="1175" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1175" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A1175" t="s">
         <v>114</v>
       </c>
@@ -27381,7 +27386,7 @@
       <c r="AE1175" s="2"/>
       <c r="AK1175" s="2"/>
     </row>
-    <row r="1176" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1176" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A1176" t="s">
         <v>114</v>
       </c>
@@ -27445,7 +27450,7 @@
         <v>45.85</v>
       </c>
     </row>
-    <row r="1177" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1177" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A1177" t="s">
         <v>114</v>
       </c>
@@ -27512,7 +27517,7 @@
         <v>45.8</v>
       </c>
     </row>
-    <row r="1178" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1178" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A1178" t="s">
         <v>114</v>
       </c>
@@ -27525,7 +27530,7 @@
       <c r="AE1178" s="2"/>
       <c r="AK1178" s="2"/>
     </row>
-    <row r="1179" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1179" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A1179" t="s">
         <v>114</v>
       </c>
@@ -27604,7 +27609,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="1180" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1180" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A1180" t="s">
         <v>114</v>
       </c>
@@ -27623,7 +27628,7 @@
       <c r="AE1180" s="2"/>
       <c r="AK1180" s="2"/>
     </row>
-    <row r="1181" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1181" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A1181" t="s">
         <v>114</v>
       </c>
@@ -27636,7 +27641,7 @@
       <c r="AE1181" s="2"/>
       <c r="AK1181" s="2"/>
     </row>
-    <row r="1182" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1182" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A1182" t="s">
         <v>114</v>
       </c>
@@ -27652,7 +27657,7 @@
       <c r="AE1182" s="2"/>
       <c r="AK1182" s="2"/>
     </row>
-    <row r="1183" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1183" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A1183" t="s">
         <v>114</v>
       </c>
@@ -27728,7 +27733,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="1184" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1184" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A1184" t="s">
         <v>114</v>
       </c>
@@ -27741,7 +27746,7 @@
       <c r="AE1184" s="2"/>
       <c r="AK1184" s="2"/>
     </row>
-    <row r="1185" spans="1:72" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1185" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A1185" t="s">
         <v>114</v>
       </c>
@@ -27754,7 +27759,7 @@
       <c r="AE1185" s="2"/>
       <c r="AK1185" s="2"/>
     </row>
-    <row r="1186" spans="1:72" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1186" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A1186" t="s">
         <v>114</v>
       </c>
@@ -27770,7 +27775,7 @@
       <c r="AE1186" s="2"/>
       <c r="AK1186" s="2"/>
     </row>
-    <row r="1187" spans="1:72" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1187" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A1187" t="s">
         <v>114</v>
       </c>
@@ -27834,7 +27839,7 @@
         <v>43.15</v>
       </c>
     </row>
-    <row r="1188" spans="1:72" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1188" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A1188" t="s">
         <v>114</v>
       </c>
@@ -27951,7 +27956,7 @@
         <v>435.5</v>
       </c>
     </row>
-    <row r="1190" spans="1:72" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1190" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A1190" t="s">
         <v>114</v>
       </c>
@@ -27970,7 +27975,7 @@
       <c r="AE1190" s="2"/>
       <c r="AK1190" s="2"/>
     </row>
-    <row r="1191" spans="1:72" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1191" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A1191" t="s">
         <v>114</v>
       </c>
@@ -27983,7 +27988,7 @@
       <c r="AE1191" s="2"/>
       <c r="AK1191" s="2"/>
     </row>
-    <row r="1192" spans="1:72" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1192" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A1192" t="s">
         <v>114</v>
       </c>
@@ -27999,7 +28004,7 @@
       <c r="AE1192" s="2"/>
       <c r="AK1192" s="2"/>
     </row>
-    <row r="1193" spans="1:72" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1193" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A1193" t="s">
         <v>114</v>
       </c>
@@ -28063,7 +28068,7 @@
         <v>43.9</v>
       </c>
     </row>
-    <row r="1194" spans="1:72" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1194" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A1194" t="s">
         <v>114</v>
       </c>
@@ -28127,7 +28132,7 @@
         <v>43.1</v>
       </c>
     </row>
-    <row r="1195" spans="1:72" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1195" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A1195" t="s">
         <v>114</v>
       </c>
@@ -28232,7 +28237,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="1197" spans="1:72" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1197" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A1197" t="s">
         <v>114</v>
       </c>
@@ -28296,7 +28301,7 @@
         <v>43.4</v>
       </c>
     </row>
-    <row r="1198" spans="1:72" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1198" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A1198" t="s">
         <v>114</v>
       </c>
@@ -28309,7 +28314,7 @@
       <c r="AE1198" s="2"/>
       <c r="AK1198" s="2"/>
     </row>
-    <row r="1199" spans="1:72" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1199" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A1199" t="s">
         <v>114</v>
       </c>
@@ -28401,7 +28406,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="1200" spans="1:72" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1200" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A1200" t="s">
         <v>114</v>
       </c>
@@ -28465,7 +28470,7 @@
         <v>41.65</v>
       </c>
     </row>
-    <row r="1201" spans="1:63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1201" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1201" t="s">
         <v>114</v>
       </c>
@@ -28529,7 +28534,7 @@
         <v>42.3</v>
       </c>
     </row>
-    <row r="1202" spans="1:63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1202" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1202" t="s">
         <v>114</v>
       </c>
@@ -28542,7 +28547,7 @@
       <c r="AE1202" s="2"/>
       <c r="AK1202" s="2"/>
     </row>
-    <row r="1203" spans="1:63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1203" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1203" t="s">
         <v>115</v>
       </c>
@@ -28555,7 +28560,7 @@
       <c r="AE1203" s="2"/>
       <c r="AK1203" s="2"/>
     </row>
-    <row r="1204" spans="1:63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1204" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1204" t="s">
         <v>115</v>
       </c>
@@ -28568,7 +28573,7 @@
       <c r="AE1204" s="2"/>
       <c r="AK1204" s="2"/>
     </row>
-    <row r="1205" spans="1:63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1205" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1205" t="s">
         <v>115</v>
       </c>
@@ -28581,7 +28586,7 @@
       <c r="AE1205" s="2"/>
       <c r="AK1205" s="2"/>
     </row>
-    <row r="1206" spans="1:63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1206" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1206" t="s">
         <v>115</v>
       </c>
@@ -28594,7 +28599,7 @@
       <c r="AE1206" s="2"/>
       <c r="AK1206" s="2"/>
     </row>
-    <row r="1207" spans="1:63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1207" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1207" t="s">
         <v>115</v>
       </c>
@@ -28607,7 +28612,7 @@
       <c r="AE1207" s="2"/>
       <c r="AK1207" s="2"/>
     </row>
-    <row r="1208" spans="1:63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1208" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1208" t="s">
         <v>115</v>
       </c>
@@ -28623,7 +28628,7 @@
       <c r="AE1208" s="2"/>
       <c r="AK1208" s="2"/>
     </row>
-    <row r="1209" spans="1:63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1209" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1209" t="s">
         <v>115</v>
       </c>
@@ -28690,7 +28695,7 @@
         <v>38.6</v>
       </c>
     </row>
-    <row r="1210" spans="1:63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1210" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1210" t="s">
         <v>115</v>
       </c>
@@ -28706,7 +28711,7 @@
       <c r="AE1210" s="2"/>
       <c r="AK1210" s="2"/>
     </row>
-    <row r="1211" spans="1:63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1211" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1211" t="s">
         <v>115</v>
       </c>
@@ -28719,7 +28724,7 @@
       <c r="AE1211" s="2"/>
       <c r="AK1211" s="2"/>
     </row>
-    <row r="1212" spans="1:63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1212" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1212" t="s">
         <v>115</v>
       </c>
@@ -28735,7 +28740,7 @@
       <c r="AE1212" s="2"/>
       <c r="AK1212" s="2"/>
     </row>
-    <row r="1213" spans="1:63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1213" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1213" t="s">
         <v>115</v>
       </c>
@@ -28748,7 +28753,7 @@
       <c r="AE1213" s="2"/>
       <c r="AK1213" s="2"/>
     </row>
-    <row r="1214" spans="1:63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1214" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1214" t="s">
         <v>115</v>
       </c>
@@ -28764,7 +28769,7 @@
       <c r="AE1214" s="2"/>
       <c r="AK1214" s="2"/>
     </row>
-    <row r="1215" spans="1:63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1215" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1215" t="s">
         <v>115</v>
       </c>
@@ -28838,7 +28843,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="1216" spans="1:63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1216" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1216" t="s">
         <v>115</v>
       </c>
@@ -28854,7 +28859,7 @@
       <c r="AE1216" s="2"/>
       <c r="AK1216" s="2"/>
     </row>
-    <row r="1217" spans="1:72" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1217" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A1217" t="s">
         <v>115</v>
       </c>
@@ -28918,7 +28923,7 @@
         <v>37.85</v>
       </c>
     </row>
-    <row r="1218" spans="1:72" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1218" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A1218" t="s">
         <v>115</v>
       </c>
@@ -28985,7 +28990,7 @@
         <v>38.549999999999997</v>
       </c>
     </row>
-    <row r="1219" spans="1:72" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1219" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A1219" t="s">
         <v>115</v>
       </c>
@@ -28998,7 +29003,7 @@
       <c r="AE1219" s="2"/>
       <c r="AK1219" s="2"/>
     </row>
-    <row r="1220" spans="1:72" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1220" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A1220" t="s">
         <v>115</v>
       </c>
@@ -29065,7 +29070,7 @@
         <v>38.1</v>
       </c>
     </row>
-    <row r="1221" spans="1:72" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1221" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A1221" t="s">
         <v>115</v>
       </c>
@@ -29084,7 +29089,7 @@
       <c r="AE1221" s="2"/>
       <c r="AK1221" s="2"/>
     </row>
-    <row r="1222" spans="1:72" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1222" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A1222" t="s">
         <v>115</v>
       </c>
@@ -29097,7 +29102,7 @@
       <c r="AE1222" s="2"/>
       <c r="AK1222" s="2"/>
     </row>
-    <row r="1223" spans="1:72" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1223" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A1223" t="s">
         <v>115</v>
       </c>
@@ -29113,7 +29118,7 @@
       <c r="AE1223" s="2"/>
       <c r="AK1223" s="2"/>
     </row>
-    <row r="1224" spans="1:72" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1224" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A1224" t="s">
         <v>115</v>
       </c>
@@ -29177,7 +29182,7 @@
         <v>37.85</v>
       </c>
     </row>
-    <row r="1225" spans="1:72" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1225" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A1225" t="s">
         <v>115</v>
       </c>
@@ -29190,7 +29195,7 @@
       <c r="AE1225" s="2"/>
       <c r="AK1225" s="2"/>
     </row>
-    <row r="1226" spans="1:72" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1226" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A1226" t="s">
         <v>115</v>
       </c>
@@ -29203,7 +29208,7 @@
       <c r="AE1226" s="2"/>
       <c r="AK1226" s="2"/>
     </row>
-    <row r="1227" spans="1:72" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1227" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A1227" t="s">
         <v>115</v>
       </c>
@@ -29219,7 +29224,7 @@
       <c r="AE1227" s="2"/>
       <c r="AK1227" s="2"/>
     </row>
-    <row r="1228" spans="1:72" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1228" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A1228" t="s">
         <v>115</v>
       </c>
@@ -29283,7 +29288,7 @@
         <v>37.9</v>
       </c>
     </row>
-    <row r="1229" spans="1:72" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1229" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A1229" t="s">
         <v>115</v>
       </c>
@@ -29400,7 +29405,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="1231" spans="1:72" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1231" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A1231" t="s">
         <v>115</v>
       </c>
@@ -29419,7 +29424,7 @@
       <c r="AE1231" s="2"/>
       <c r="AK1231" s="2"/>
     </row>
-    <row r="1232" spans="1:72" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1232" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A1232" t="s">
         <v>115</v>
       </c>
@@ -29432,7 +29437,7 @@
       <c r="AE1232" s="2"/>
       <c r="AK1232" s="2"/>
     </row>
-    <row r="1233" spans="1:63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1233" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1233" t="s">
         <v>115</v>
       </c>
@@ -29448,7 +29453,7 @@
       <c r="AE1233" s="2"/>
       <c r="AK1233" s="2"/>
     </row>
-    <row r="1234" spans="1:63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1234" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1234" t="s">
         <v>115</v>
       </c>
@@ -29512,7 +29517,7 @@
         <v>37.450000000000003</v>
       </c>
     </row>
-    <row r="1235" spans="1:63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1235" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1235" t="s">
         <v>115</v>
       </c>
@@ -29576,7 +29581,7 @@
         <v>37.25</v>
       </c>
     </row>
-    <row r="1236" spans="1:63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1236" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1236" t="s">
         <v>115</v>
       </c>
@@ -29681,7 +29686,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="1238" spans="1:63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1238" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1238" t="s">
         <v>115</v>
       </c>
@@ -29745,7 +29750,7 @@
         <v>36.799999999999997</v>
       </c>
     </row>
-    <row r="1239" spans="1:63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1239" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1239" t="s">
         <v>115</v>
       </c>
@@ -29758,7 +29763,7 @@
       <c r="AE1239" s="2"/>
       <c r="AK1239" s="2"/>
     </row>
-    <row r="1240" spans="1:63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1240" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1240" t="s">
         <v>115</v>
       </c>
@@ -29850,7 +29855,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="1241" spans="1:63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1241" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1241" t="s">
         <v>115</v>
       </c>
@@ -29914,7 +29919,7 @@
         <v>35.85</v>
       </c>
     </row>
-    <row r="1242" spans="1:63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1242" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1242" t="s">
         <v>115</v>
       </c>
@@ -29978,7 +29983,7 @@
         <v>35.85</v>
       </c>
     </row>
-    <row r="1243" spans="1:63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1243" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1243" t="s">
         <v>115</v>
       </c>
@@ -29991,7 +29996,7 @@
       <c r="AE1243" s="2"/>
       <c r="AK1243" s="2"/>
     </row>
-    <row r="1244" spans="1:63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1244" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1244" t="s">
         <v>116</v>
       </c>
@@ -30004,7 +30009,7 @@
       <c r="AE1244" s="2"/>
       <c r="AK1244" s="2"/>
     </row>
-    <row r="1245" spans="1:63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1245" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1245" t="s">
         <v>116</v>
       </c>
@@ -30017,7 +30022,7 @@
       <c r="AE1245" s="2"/>
       <c r="AK1245" s="2"/>
     </row>
-    <row r="1246" spans="1:63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1246" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1246" t="s">
         <v>116</v>
       </c>
@@ -30030,7 +30035,7 @@
       <c r="AE1246" s="2"/>
       <c r="AK1246" s="2"/>
     </row>
-    <row r="1247" spans="1:63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1247" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1247" t="s">
         <v>116</v>
       </c>
@@ -30043,7 +30048,7 @@
       <c r="AE1247" s="2"/>
       <c r="AK1247" s="2"/>
     </row>
-    <row r="1248" spans="1:63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1248" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1248" t="s">
         <v>116</v>
       </c>
@@ -30056,7 +30061,7 @@
       <c r="AE1248" s="2"/>
       <c r="AK1248" s="2"/>
     </row>
-    <row r="1249" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1249" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A1249" t="s">
         <v>116</v>
       </c>
@@ -30072,7 +30077,7 @@
       <c r="AE1249" s="2"/>
       <c r="AK1249" s="2"/>
     </row>
-    <row r="1250" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1250" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A1250" t="s">
         <v>116</v>
       </c>
@@ -30139,7 +30144,7 @@
         <v>50.55</v>
       </c>
     </row>
-    <row r="1251" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1251" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A1251" t="s">
         <v>116</v>
       </c>
@@ -30155,7 +30160,7 @@
       <c r="AE1251" s="2"/>
       <c r="AK1251" s="2"/>
     </row>
-    <row r="1252" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1252" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A1252" t="s">
         <v>116</v>
       </c>
@@ -30168,7 +30173,7 @@
       <c r="AE1252" s="2"/>
       <c r="AK1252" s="2"/>
     </row>
-    <row r="1253" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1253" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A1253" t="s">
         <v>116</v>
       </c>
@@ -30184,7 +30189,7 @@
       <c r="AE1253" s="2"/>
       <c r="AK1253" s="2"/>
     </row>
-    <row r="1254" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1254" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A1254" t="s">
         <v>116</v>
       </c>
@@ -30197,7 +30202,7 @@
       <c r="AE1254" s="2"/>
       <c r="AK1254" s="2"/>
     </row>
-    <row r="1255" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1255" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A1255" t="s">
         <v>116</v>
       </c>
@@ -30213,7 +30218,7 @@
       <c r="AE1255" s="2"/>
       <c r="AK1255" s="2"/>
     </row>
-    <row r="1256" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1256" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A1256" t="s">
         <v>116</v>
       </c>
@@ -30287,7 +30292,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="1257" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1257" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A1257" t="s">
         <v>116</v>
       </c>
@@ -30303,7 +30308,7 @@
       <c r="AE1257" s="2"/>
       <c r="AK1257" s="2"/>
     </row>
-    <row r="1258" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1258" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A1258" t="s">
         <v>116</v>
       </c>
@@ -30367,7 +30372,7 @@
         <v>50.45</v>
       </c>
     </row>
-    <row r="1259" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1259" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A1259" t="s">
         <v>116</v>
       </c>
@@ -30434,7 +30439,7 @@
         <v>50.5</v>
       </c>
     </row>
-    <row r="1260" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1260" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A1260" t="s">
         <v>116</v>
       </c>
@@ -30447,7 +30452,7 @@
       <c r="AE1260" s="2"/>
       <c r="AK1260" s="2"/>
     </row>
-    <row r="1261" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1261" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A1261" t="s">
         <v>116</v>
       </c>
@@ -30526,7 +30531,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="1262" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1262" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A1262" t="s">
         <v>116</v>
       </c>
@@ -30545,7 +30550,7 @@
       <c r="AE1262" s="2"/>
       <c r="AK1262" s="2"/>
     </row>
-    <row r="1263" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1263" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A1263" t="s">
         <v>116</v>
       </c>
@@ -30558,7 +30563,7 @@
       <c r="AE1263" s="2"/>
       <c r="AK1263" s="2"/>
     </row>
-    <row r="1264" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1264" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A1264" t="s">
         <v>116</v>
       </c>
@@ -30574,7 +30579,7 @@
       <c r="AE1264" s="2"/>
       <c r="AK1264" s="2"/>
     </row>
-    <row r="1265" spans="1:72" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1265" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A1265" t="s">
         <v>116</v>
       </c>
@@ -30638,7 +30643,7 @@
         <v>49.9</v>
       </c>
     </row>
-    <row r="1266" spans="1:72" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1266" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A1266" t="s">
         <v>116</v>
       </c>
@@ -30651,7 +30656,7 @@
       <c r="AE1266" s="2"/>
       <c r="AK1266" s="2"/>
     </row>
-    <row r="1267" spans="1:72" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1267" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A1267" t="s">
         <v>116</v>
       </c>
@@ -30664,7 +30669,7 @@
       <c r="AE1267" s="2"/>
       <c r="AK1267" s="2"/>
     </row>
-    <row r="1268" spans="1:72" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1268" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A1268" t="s">
         <v>116</v>
       </c>
@@ -30680,7 +30685,7 @@
       <c r="AE1268" s="2"/>
       <c r="AK1268" s="2"/>
     </row>
-    <row r="1269" spans="1:72" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1269" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A1269" t="s">
         <v>116</v>
       </c>
@@ -30744,7 +30749,7 @@
         <v>50.1</v>
       </c>
     </row>
-    <row r="1270" spans="1:72" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1270" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A1270" t="s">
         <v>116</v>
       </c>
@@ -30861,7 +30866,7 @@
         <v>515.9</v>
       </c>
     </row>
-    <row r="1272" spans="1:72" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1272" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A1272" t="s">
         <v>116</v>
       </c>
@@ -30880,7 +30885,7 @@
       <c r="AE1272" s="2"/>
       <c r="AK1272" s="2"/>
     </row>
-    <row r="1273" spans="1:72" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1273" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A1273" t="s">
         <v>116</v>
       </c>
@@ -30893,7 +30898,7 @@
       <c r="AE1273" s="2"/>
       <c r="AK1273" s="2"/>
     </row>
-    <row r="1274" spans="1:72" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1274" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A1274" t="s">
         <v>116</v>
       </c>
@@ -30909,7 +30914,7 @@
       <c r="AE1274" s="2"/>
       <c r="AK1274" s="2"/>
     </row>
-    <row r="1275" spans="1:72" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1275" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A1275" t="s">
         <v>116</v>
       </c>
@@ -30973,7 +30978,7 @@
         <v>49.8</v>
       </c>
     </row>
-    <row r="1276" spans="1:72" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1276" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A1276" t="s">
         <v>116</v>
       </c>
@@ -31037,7 +31042,7 @@
         <v>49.55</v>
       </c>
     </row>
-    <row r="1277" spans="1:72" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1277" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A1277" t="s">
         <v>116</v>
       </c>
@@ -31142,7 +31147,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="1279" spans="1:72" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1279" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A1279" t="s">
         <v>116</v>
       </c>
@@ -31206,7 +31211,7 @@
         <v>49.15</v>
       </c>
     </row>
-    <row r="1280" spans="1:72" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1280" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A1280" t="s">
         <v>116</v>
       </c>
@@ -31219,7 +31224,7 @@
       <c r="AE1280" s="2"/>
       <c r="AK1280" s="2"/>
     </row>
-    <row r="1281" spans="1:63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1281" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1281" t="s">
         <v>116</v>
       </c>
@@ -31311,7 +31316,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="1282" spans="1:63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1282" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1282" t="s">
         <v>116</v>
       </c>
@@ -31375,7 +31380,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="1283" spans="1:63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1283" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1283" t="s">
         <v>116</v>
       </c>
@@ -31439,7 +31444,7 @@
         <v>48.25</v>
       </c>
     </row>
-    <row r="1284" spans="1:63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1284" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1284" t="s">
         <v>116</v>
       </c>
@@ -31787,7 +31792,7 @@
       <c r="AE1304" s="2"/>
       <c r="AK1304" s="2"/>
     </row>
-    <row r="1305" spans="1:63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1305" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1305" t="s">
         <v>112</v>
       </c>
@@ -31814,7 +31819,7 @@
       </c>
       <c r="AK1305" s="2"/>
     </row>
-    <row r="1306" spans="1:63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1306" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1306" t="s">
         <v>111</v>
       </c>
@@ -31841,7 +31846,7 @@
       </c>
       <c r="AK1306" s="2"/>
     </row>
-    <row r="1307" spans="1:63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1307" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1307" t="s">
         <v>114</v>
       </c>
@@ -31868,7 +31873,7 @@
       </c>
       <c r="AK1307" s="2"/>
     </row>
-    <row r="1308" spans="1:63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1308" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1308" t="s">
         <v>113</v>
       </c>
@@ -31895,7 +31900,7 @@
       </c>
       <c r="AK1308" s="2"/>
     </row>
-    <row r="1309" spans="1:63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1309" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1309" t="s">
         <v>116</v>
       </c>
@@ -31922,7 +31927,7 @@
       </c>
       <c r="AK1309" s="2"/>
     </row>
-    <row r="1310" spans="1:63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1310" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1310" t="s">
         <v>115</v>
       </c>
@@ -31949,7 +31954,7 @@
       </c>
       <c r="AK1310" s="2"/>
     </row>
-    <row r="1311" spans="1:63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1311" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1311" t="s">
         <v>112</v>
       </c>
@@ -32019,7 +32024,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="1312" spans="1:63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1312" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1312" t="s">
         <v>112</v>
       </c>
@@ -32080,7 +32085,7 @@
         <v>45.55</v>
       </c>
     </row>
-    <row r="1313" spans="1:63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1313" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1313" t="s">
         <v>112</v>
       </c>
@@ -32141,7 +32146,7 @@
         <v>45.25</v>
       </c>
     </row>
-    <row r="1314" spans="1:63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1314" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1314" t="s">
         <v>112</v>
       </c>
@@ -32202,7 +32207,7 @@
         <v>42.8</v>
       </c>
     </row>
-    <row r="1315" spans="1:63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1315" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1315" t="s">
         <v>112</v>
       </c>
@@ -32263,7 +32268,7 @@
         <v>43.4</v>
       </c>
     </row>
-    <row r="1316" spans="1:63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1316" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1316" t="s">
         <v>112</v>
       </c>
@@ -32324,7 +32329,7 @@
         <v>42.15</v>
       </c>
     </row>
-    <row r="1317" spans="1:63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1317" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1317" t="s">
         <v>112</v>
       </c>
@@ -32385,7 +32390,7 @@
         <v>41.7</v>
       </c>
     </row>
-    <row r="1318" spans="1:63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1318" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1318" t="s">
         <v>112</v>
       </c>
@@ -32446,7 +32451,7 @@
         <v>40.200000000000003</v>
       </c>
     </row>
-    <row r="1319" spans="1:63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1319" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1319" t="s">
         <v>112</v>
       </c>
@@ -32507,7 +32512,7 @@
         <v>40.200000000000003</v>
       </c>
     </row>
-    <row r="1320" spans="1:63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1320" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1320" t="s">
         <v>112</v>
       </c>
@@ -32568,7 +32573,7 @@
         <v>39.799999999999997</v>
       </c>
     </row>
-    <row r="1321" spans="1:63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1321" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1321" t="s">
         <v>114</v>
       </c>
@@ -32638,7 +32643,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="1322" spans="1:63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1322" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1322" t="s">
         <v>114</v>
       </c>
@@ -32699,7 +32704,7 @@
         <v>44.9</v>
       </c>
     </row>
-    <row r="1323" spans="1:63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1323" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1323" t="s">
         <v>114</v>
       </c>
@@ -32760,7 +32765,7 @@
         <v>44.9</v>
       </c>
     </row>
-    <row r="1324" spans="1:63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1324" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1324" t="s">
         <v>114</v>
       </c>
@@ -32821,7 +32826,7 @@
         <v>45.75</v>
       </c>
     </row>
-    <row r="1325" spans="1:63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1325" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1325" t="s">
         <v>114</v>
       </c>
@@ -32882,7 +32887,7 @@
         <v>44.95</v>
       </c>
     </row>
-    <row r="1326" spans="1:63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1326" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1326" t="s">
         <v>114</v>
       </c>
@@ -32943,7 +32948,7 @@
         <v>43.95</v>
       </c>
     </row>
-    <row r="1327" spans="1:63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1327" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1327" t="s">
         <v>114</v>
       </c>
@@ -33004,7 +33009,7 @@
         <v>44.2</v>
       </c>
     </row>
-    <row r="1328" spans="1:63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1328" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1328" t="s">
         <v>114</v>
       </c>
@@ -33065,7 +33070,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="1329" spans="1:63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1329" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1329" t="s">
         <v>114</v>
       </c>
@@ -33126,7 +33131,7 @@
         <v>41.6</v>
       </c>
     </row>
-    <row r="1330" spans="1:63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1330" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1330" t="s">
         <v>114</v>
       </c>
@@ -33187,7 +33192,7 @@
         <v>41.2</v>
       </c>
     </row>
-    <row r="1331" spans="1:63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1331" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1331" t="s">
         <v>116</v>
       </c>
@@ -33257,7 +33262,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="1332" spans="1:63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1332" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1332" t="s">
         <v>116</v>
       </c>
@@ -33318,7 +33323,7 @@
         <v>50.7</v>
       </c>
     </row>
-    <row r="1333" spans="1:63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1333" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1333" t="s">
         <v>116</v>
       </c>
@@ -33379,7 +33384,7 @@
         <v>50.15</v>
       </c>
     </row>
-    <row r="1334" spans="1:63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1334" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1334" t="s">
         <v>116</v>
       </c>
@@ -33440,7 +33445,7 @@
         <v>50.55</v>
       </c>
     </row>
-    <row r="1335" spans="1:63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1335" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1335" t="s">
         <v>116</v>
       </c>
@@ -33501,7 +33506,7 @@
         <v>50.4</v>
       </c>
     </row>
-    <row r="1336" spans="1:63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1336" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1336" t="s">
         <v>116</v>
       </c>
@@ -33562,7 +33567,7 @@
         <v>49.65</v>
       </c>
     </row>
-    <row r="1337" spans="1:63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1337" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1337" t="s">
         <v>116</v>
       </c>
@@ -33623,7 +33628,7 @@
         <v>49.2</v>
       </c>
     </row>
-    <row r="1338" spans="1:63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1338" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1338" t="s">
         <v>116</v>
       </c>
@@ -33684,7 +33689,7 @@
         <v>48.15</v>
       </c>
     </row>
-    <row r="1339" spans="1:63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1339" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1339" t="s">
         <v>116</v>
       </c>
@@ -33745,7 +33750,7 @@
         <v>47.4</v>
       </c>
     </row>
-    <row r="1340" spans="1:63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1340" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1340" t="s">
         <v>116</v>
       </c>
@@ -33806,7 +33811,7 @@
         <v>47.05</v>
       </c>
     </row>
-    <row r="1341" spans="1:63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1341" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1341" t="s">
         <v>111</v>
       </c>
@@ -33876,7 +33881,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="1342" spans="1:63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1342" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1342" t="s">
         <v>111</v>
       </c>
@@ -33937,7 +33942,7 @@
         <v>38.85</v>
       </c>
     </row>
-    <row r="1343" spans="1:63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1343" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1343" t="s">
         <v>111</v>
       </c>
@@ -33998,7 +34003,7 @@
         <v>38.450000000000003</v>
       </c>
     </row>
-    <row r="1344" spans="1:63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1344" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1344" t="s">
         <v>111</v>
       </c>
@@ -34059,7 +34064,7 @@
         <v>38.65</v>
       </c>
     </row>
-    <row r="1345" spans="1:63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1345" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1345" t="s">
         <v>111</v>
       </c>
@@ -34120,7 +34125,7 @@
         <v>39.9</v>
       </c>
     </row>
-    <row r="1346" spans="1:63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1346" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1346" t="s">
         <v>111</v>
       </c>
@@ -34181,7 +34186,7 @@
         <v>39.950000000000003</v>
       </c>
     </row>
-    <row r="1347" spans="1:63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1347" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1347" t="s">
         <v>111</v>
       </c>
@@ -34242,7 +34247,7 @@
         <v>39.35</v>
       </c>
     </row>
-    <row r="1348" spans="1:63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1348" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1348" t="s">
         <v>111</v>
       </c>
@@ -34303,7 +34308,7 @@
         <v>38.1</v>
       </c>
     </row>
-    <row r="1349" spans="1:63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1349" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1349" t="s">
         <v>111</v>
       </c>
@@ -34364,7 +34369,7 @@
         <v>37.75</v>
       </c>
     </row>
-    <row r="1350" spans="1:63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1350" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1350" t="s">
         <v>111</v>
       </c>
@@ -34425,7 +34430,7 @@
         <v>37.950000000000003</v>
       </c>
     </row>
-    <row r="1351" spans="1:63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1351" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1351" t="s">
         <v>113</v>
       </c>
@@ -34495,7 +34500,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="1352" spans="1:63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1352" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1352" t="s">
         <v>113</v>
       </c>
@@ -34556,7 +34561,7 @@
         <v>35.450000000000003</v>
       </c>
     </row>
-    <row r="1353" spans="1:63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1353" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1353" t="s">
         <v>113</v>
       </c>
@@ -34617,7 +34622,7 @@
         <v>35.5</v>
       </c>
     </row>
-    <row r="1354" spans="1:63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1354" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1354" t="s">
         <v>113</v>
       </c>
@@ -34678,7 +34683,7 @@
         <v>35.9</v>
       </c>
     </row>
-    <row r="1355" spans="1:63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1355" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1355" t="s">
         <v>113</v>
       </c>
@@ -34739,7 +34744,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1356" spans="1:63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1356" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1356" t="s">
         <v>113</v>
       </c>
@@ -34800,7 +34805,7 @@
         <v>34.75</v>
       </c>
     </row>
-    <row r="1357" spans="1:63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1357" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1357" t="s">
         <v>113</v>
       </c>
@@ -34861,7 +34866,7 @@
         <v>33.6</v>
       </c>
     </row>
-    <row r="1358" spans="1:63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1358" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1358" t="s">
         <v>113</v>
       </c>
@@ -34922,7 +34927,7 @@
         <v>32.25</v>
       </c>
     </row>
-    <row r="1359" spans="1:63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1359" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1359" t="s">
         <v>113</v>
       </c>
@@ -34983,7 +34988,7 @@
         <v>31.6</v>
       </c>
     </row>
-    <row r="1360" spans="1:63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1360" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1360" t="s">
         <v>113</v>
       </c>
@@ -35044,7 +35049,7 @@
         <v>31.7</v>
       </c>
     </row>
-    <row r="1361" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1361" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A1361" t="s">
         <v>115</v>
       </c>
@@ -35114,7 +35119,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="1362" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1362" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A1362" t="s">
         <v>115</v>
       </c>
@@ -35175,7 +35180,7 @@
         <v>38.6</v>
       </c>
     </row>
-    <row r="1363" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1363" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A1363" t="s">
         <v>115</v>
       </c>
@@ -35236,7 +35241,7 @@
         <v>37.75</v>
       </c>
     </row>
-    <row r="1364" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1364" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A1364" t="s">
         <v>115</v>
       </c>
@@ -35297,7 +35302,7 @@
         <v>37.799999999999997</v>
       </c>
     </row>
-    <row r="1365" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1365" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A1365" t="s">
         <v>115</v>
       </c>
@@ -35358,7 +35363,7 @@
         <v>38.1</v>
       </c>
     </row>
-    <row r="1366" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1366" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A1366" t="s">
         <v>115</v>
       </c>
@@ -35419,7 +35424,7 @@
         <v>37.85</v>
       </c>
     </row>
-    <row r="1367" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1367" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A1367" t="s">
         <v>115</v>
       </c>
@@ -35480,7 +35485,7 @@
         <v>36.9</v>
       </c>
     </row>
-    <row r="1368" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1368" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A1368" t="s">
         <v>115</v>
       </c>
@@ -35553,7 +35558,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="1369" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1369" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A1369" t="s">
         <v>115</v>
       </c>
@@ -35614,7 +35619,7 @@
         <v>35.25</v>
       </c>
     </row>
-    <row r="1370" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1370" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A1370" t="s">
         <v>115</v>
       </c>
@@ -35675,7 +35680,7 @@
         <v>35.15</v>
       </c>
     </row>
-    <row r="1371" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1371" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A1371" t="s">
         <v>111</v>
       </c>
@@ -35688,7 +35693,7 @@
       <c r="AE1371" s="2"/>
       <c r="AK1371" s="2"/>
     </row>
-    <row r="1372" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1372" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A1372" t="s">
         <v>111</v>
       </c>
@@ -35753,7 +35758,7 @@
       <c r="AE1376" s="2"/>
       <c r="AK1376" s="2"/>
     </row>
-    <row r="1377" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1377" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A1377" t="s">
         <v>112</v>
       </c>
@@ -35775,7 +35780,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="1378" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1378" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A1378" t="s">
         <v>112</v>
       </c>
@@ -35797,7 +35802,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="1379" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1379" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A1379" t="s">
         <v>112</v>
       </c>
@@ -35819,7 +35824,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="1380" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1380" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A1380" t="s">
         <v>112</v>
       </c>
@@ -35841,7 +35846,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="1381" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1381" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A1381" t="s">
         <v>112</v>
       </c>
@@ -35863,7 +35868,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="1382" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1382" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A1382" t="s">
         <v>112</v>
       </c>
@@ -35885,7 +35890,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="1383" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1383" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A1383" t="s">
         <v>112</v>
       </c>
@@ -35907,7 +35912,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="1384" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1384" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A1384" t="s">
         <v>112</v>
       </c>
@@ -35929,7 +35934,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="1385" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1385" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A1385" t="s">
         <v>112</v>
       </c>
@@ -35951,7 +35956,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="1386" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1386" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A1386" t="s">
         <v>112</v>
       </c>
@@ -35973,7 +35978,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="1387" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1387" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A1387" t="s">
         <v>114</v>
       </c>
@@ -35995,7 +36000,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="1388" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1388" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A1388" t="s">
         <v>114</v>
       </c>
@@ -36017,7 +36022,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="1389" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1389" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A1389" t="s">
         <v>114</v>
       </c>
@@ -36039,7 +36044,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="1390" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1390" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A1390" t="s">
         <v>114</v>
       </c>
@@ -36061,7 +36066,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="1391" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1391" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A1391" t="s">
         <v>114</v>
       </c>
@@ -36083,7 +36088,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="1392" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1392" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A1392" t="s">
         <v>114</v>
       </c>
@@ -36105,7 +36110,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="1393" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1393" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A1393" t="s">
         <v>114</v>
       </c>
@@ -36127,7 +36132,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="1394" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1394" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A1394" t="s">
         <v>114</v>
       </c>
@@ -36149,7 +36154,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="1395" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1395" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A1395" t="s">
         <v>114</v>
       </c>
@@ -36171,7 +36176,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="1396" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1396" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A1396" t="s">
         <v>114</v>
       </c>
@@ -36193,7 +36198,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="1397" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1397" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A1397" t="s">
         <v>114</v>
       </c>
@@ -36215,7 +36220,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="1398" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1398" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A1398" t="s">
         <v>114</v>
       </c>
@@ -36237,7 +36242,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="1399" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1399" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A1399" t="s">
         <v>114</v>
       </c>
@@ -36259,7 +36264,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="1400" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1400" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A1400" t="s">
         <v>116</v>
       </c>
@@ -36281,7 +36286,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="1401" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1401" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A1401" t="s">
         <v>116</v>
       </c>
@@ -36303,7 +36308,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="1402" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1402" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A1402" t="s">
         <v>116</v>
       </c>
@@ -36325,7 +36330,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="1403" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1403" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A1403" t="s">
         <v>116</v>
       </c>
@@ -36347,7 +36352,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="1404" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1404" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A1404" t="s">
         <v>116</v>
       </c>
@@ -36369,7 +36374,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="1405" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1405" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A1405" t="s">
         <v>116</v>
       </c>
@@ -36391,7 +36396,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="1406" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1406" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A1406" t="s">
         <v>116</v>
       </c>
@@ -36413,7 +36418,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="1407" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1407" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A1407" t="s">
         <v>116</v>
       </c>
@@ -36435,7 +36440,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="1408" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1408" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A1408" t="s">
         <v>116</v>
       </c>
@@ -36457,7 +36462,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="1409" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1409" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A1409" t="s">
         <v>116</v>
       </c>
@@ -36479,7 +36484,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="1410" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1410" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A1410" t="s">
         <v>116</v>
       </c>
@@ -36501,7 +36506,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="1411" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1411" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A1411" t="s">
         <v>116</v>
       </c>
@@ -36523,7 +36528,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="1412" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1412" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A1412" t="s">
         <v>116</v>
       </c>
@@ -36545,7 +36550,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="1413" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1413" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A1413" t="s">
         <v>116</v>
       </c>
@@ -36567,7 +36572,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="1414" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1414" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A1414" t="s">
         <v>111</v>
       </c>
@@ -36589,7 +36594,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="1415" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1415" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A1415" t="s">
         <v>111</v>
       </c>
@@ -36611,7 +36616,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="1416" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1416" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A1416" t="s">
         <v>111</v>
       </c>
@@ -36633,7 +36638,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="1417" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1417" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A1417" t="s">
         <v>111</v>
       </c>
@@ -36655,7 +36660,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="1418" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1418" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A1418" t="s">
         <v>111</v>
       </c>
@@ -36677,7 +36682,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="1419" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1419" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A1419" t="s">
         <v>111</v>
       </c>
@@ -36699,7 +36704,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="1420" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1420" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A1420" t="s">
         <v>111</v>
       </c>
@@ -36721,7 +36726,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="1421" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1421" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A1421" t="s">
         <v>111</v>
       </c>
@@ -36743,7 +36748,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="1422" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1422" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A1422" t="s">
         <v>111</v>
       </c>
@@ -36765,7 +36770,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="1423" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1423" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A1423" t="s">
         <v>113</v>
       </c>
@@ -36787,7 +36792,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="1424" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1424" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A1424" t="s">
         <v>113</v>
       </c>
@@ -36809,7 +36814,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="1425" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1425" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A1425" t="s">
         <v>113</v>
       </c>
@@ -36831,7 +36836,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="1426" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1426" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A1426" t="s">
         <v>113</v>
       </c>
@@ -36853,7 +36858,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="1427" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1427" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A1427" t="s">
         <v>113</v>
       </c>
@@ -36875,7 +36880,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="1428" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1428" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A1428" t="s">
         <v>113</v>
       </c>
@@ -36897,7 +36902,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="1429" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1429" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A1429" t="s">
         <v>113</v>
       </c>
@@ -36919,7 +36924,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="1430" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1430" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A1430" t="s">
         <v>115</v>
       </c>
@@ -36941,7 +36946,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="1431" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1431" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A1431" t="s">
         <v>115</v>
       </c>
@@ -36963,7 +36968,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="1432" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1432" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A1432" t="s">
         <v>115</v>
       </c>
@@ -36985,7 +36990,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="1433" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1433" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A1433" t="s">
         <v>115</v>
       </c>
@@ -37007,7 +37012,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="1434" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1434" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A1434" t="s">
         <v>115</v>
       </c>
@@ -37029,7 +37034,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="1435" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1435" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A1435" t="s">
         <v>115</v>
       </c>
@@ -37051,7 +37056,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="1436" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1436" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A1436" t="s">
         <v>115</v>
       </c>
@@ -37073,7 +37078,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="1437" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1437" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A1437" t="s">
         <v>115</v>
       </c>
@@ -37095,15 +37100,12 @@
         <v>209</v>
       </c>
     </row>
-    <row r="1438" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1438" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A1438" t="s">
         <v>112</v>
       </c>
       <c r="B1438" s="3">
         <v>41261.666666666664</v>
-      </c>
-      <c r="U1438">
-        <v>1</v>
       </c>
       <c r="AE1438" s="2"/>
       <c r="AK1438" s="2"/>
@@ -37116,16 +37118,16 @@
       <c r="BM1438" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="1439" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+      <c r="BU1438">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1439" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A1439" t="s">
         <v>112</v>
       </c>
       <c r="B1439" s="3">
         <v>41263.625</v>
-      </c>
-      <c r="U1439">
-        <v>2</v>
       </c>
       <c r="AE1439" s="2"/>
       <c r="AK1439" s="2"/>
@@ -37138,16 +37140,16 @@
       <c r="BM1439" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="1440" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+      <c r="BU1439">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1440" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A1440" t="s">
         <v>112</v>
       </c>
       <c r="B1440" s="3">
         <v>41269.75</v>
-      </c>
-      <c r="U1440">
-        <v>3</v>
       </c>
       <c r="AE1440" s="2"/>
       <c r="AK1440" s="2"/>
@@ -37160,16 +37162,16 @@
       <c r="BM1440" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="1441" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+      <c r="BU1440">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1441" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A1441" t="s">
         <v>112</v>
       </c>
       <c r="B1441" s="3">
         <v>41270.5</v>
-      </c>
-      <c r="U1441">
-        <v>4</v>
       </c>
       <c r="AE1441" s="2"/>
       <c r="AK1441" s="2"/>
@@ -37182,16 +37184,16 @@
       <c r="BM1441" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="1442" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+      <c r="BU1441">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1442" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A1442" t="s">
         <v>112</v>
       </c>
       <c r="B1442" s="3">
         <v>41276.166666666664</v>
-      </c>
-      <c r="U1442">
-        <v>5</v>
       </c>
       <c r="AE1442" s="2"/>
       <c r="AK1442" s="2"/>
@@ -37204,16 +37206,16 @@
       <c r="BM1442" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="1443" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+      <c r="BU1442">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1443" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A1443" t="s">
         <v>112</v>
       </c>
       <c r="B1443" s="3">
         <v>41278.041666666664</v>
-      </c>
-      <c r="U1443">
-        <v>7</v>
       </c>
       <c r="AE1443" s="2"/>
       <c r="AK1443" s="2"/>
@@ -37226,16 +37228,16 @@
       <c r="BM1443" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="1444" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+      <c r="BU1443">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1444" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A1444" t="s">
         <v>112</v>
       </c>
       <c r="B1444" s="3">
         <v>41283.625</v>
-      </c>
-      <c r="U1444">
-        <v>8</v>
       </c>
       <c r="AE1444" s="2"/>
       <c r="AK1444" s="2"/>
@@ -37248,16 +37250,16 @@
       <c r="BM1444" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="1445" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+      <c r="BU1444">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1445" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A1445" t="s">
         <v>112</v>
       </c>
       <c r="B1445" s="3">
         <v>41284.75</v>
-      </c>
-      <c r="U1445">
-        <v>9</v>
       </c>
       <c r="AE1445" s="2"/>
       <c r="AK1445" s="2"/>
@@ -37270,16 +37272,16 @@
       <c r="BM1445" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="1446" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+      <c r="BU1445">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1446" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A1446" t="s">
         <v>112</v>
       </c>
       <c r="B1446" s="3">
         <v>41292.375</v>
-      </c>
-      <c r="U1446">
-        <v>10</v>
       </c>
       <c r="AE1446" s="2"/>
       <c r="AK1446" s="2"/>
@@ -37292,16 +37294,16 @@
       <c r="BM1446" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="1447" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+      <c r="BU1446">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1447" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A1447" t="s">
         <v>112</v>
       </c>
       <c r="B1447" s="3">
         <v>41298.791666666664</v>
-      </c>
-      <c r="U1447">
-        <v>11</v>
       </c>
       <c r="AE1447" s="2"/>
       <c r="AK1447" s="2"/>
@@ -37314,16 +37316,16 @@
       <c r="BM1447" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="1448" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+      <c r="BU1447">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1448" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A1448" t="s">
         <v>112</v>
       </c>
       <c r="B1448" s="3">
         <v>41306.875</v>
-      </c>
-      <c r="U1448">
-        <v>12</v>
       </c>
       <c r="AE1448" s="2"/>
       <c r="AK1448" s="2"/>
@@ -37336,16 +37338,16 @@
       <c r="BM1448" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="1449" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+      <c r="BU1448">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1449" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A1449" t="s">
         <v>112</v>
       </c>
       <c r="B1449" s="3">
         <v>41318.083333333336</v>
-      </c>
-      <c r="U1449">
-        <v>13</v>
       </c>
       <c r="AE1449" s="2"/>
       <c r="AK1449" s="2"/>
@@ -37358,16 +37360,16 @@
       <c r="BM1449" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="1450" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+      <c r="BU1449">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1450" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A1450" t="s">
         <v>112</v>
       </c>
       <c r="B1450" s="3">
         <v>41333.583333333336</v>
-      </c>
-      <c r="U1450">
-        <v>14</v>
       </c>
       <c r="AE1450" s="2"/>
       <c r="AK1450" s="2"/>
@@ -37380,16 +37382,16 @@
       <c r="BM1450" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="1451" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+      <c r="BU1450">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1451" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A1451" t="s">
         <v>112</v>
       </c>
       <c r="B1451" s="3">
         <v>41342.183333333334</v>
-      </c>
-      <c r="U1451">
-        <v>15</v>
       </c>
       <c r="AE1451" s="2"/>
       <c r="AK1451" s="2"/>
@@ -37402,16 +37404,16 @@
       <c r="BM1451" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="1452" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+      <c r="BU1451">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1452" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A1452" t="s">
         <v>112</v>
       </c>
       <c r="B1452" s="3">
         <v>41342.791666666664</v>
-      </c>
-      <c r="U1452">
-        <v>16</v>
       </c>
       <c r="AE1452" s="2"/>
       <c r="AK1452" s="2"/>
@@ -37424,16 +37426,16 @@
       <c r="BM1452" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="1453" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+      <c r="BU1452">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1453" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A1453" t="s">
         <v>112</v>
       </c>
       <c r="B1453" s="3">
         <v>41345.050000000003</v>
-      </c>
-      <c r="U1453">
-        <v>17</v>
       </c>
       <c r="AE1453" s="2"/>
       <c r="AK1453" s="2"/>
@@ -37446,16 +37448,16 @@
       <c r="BM1453" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="1454" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+      <c r="BU1453">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1454" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A1454" t="s">
         <v>114</v>
       </c>
       <c r="B1454" s="3">
         <v>41261.916666666664</v>
-      </c>
-      <c r="U1454">
-        <v>1</v>
       </c>
       <c r="AE1454" s="2"/>
       <c r="AK1454" s="2"/>
@@ -37468,16 +37470,16 @@
       <c r="BM1454" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="1455" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+      <c r="BU1454">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1455" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A1455" t="s">
         <v>114</v>
       </c>
       <c r="B1455" s="3">
         <v>41265.416666666664</v>
-      </c>
-      <c r="U1455">
-        <v>2</v>
       </c>
       <c r="AE1455" s="2"/>
       <c r="AK1455" s="2"/>
@@ -37490,16 +37492,16 @@
       <c r="BM1455" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="1456" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+      <c r="BU1455">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1456" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A1456" t="s">
         <v>114</v>
       </c>
       <c r="B1456" s="3">
         <v>41269.875</v>
-      </c>
-      <c r="U1456">
-        <v>3</v>
       </c>
       <c r="AE1456" s="2"/>
       <c r="AK1456" s="2"/>
@@ -37512,16 +37514,16 @@
       <c r="BM1456" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="1457" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+      <c r="BU1456">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1457" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A1457" t="s">
         <v>114</v>
       </c>
       <c r="B1457" s="3">
         <v>41271.875</v>
-      </c>
-      <c r="U1457">
-        <v>4</v>
       </c>
       <c r="AE1457" s="2"/>
       <c r="AK1457" s="2"/>
@@ -37534,16 +37536,16 @@
       <c r="BM1457" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="1458" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+      <c r="BU1457">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1458" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A1458" t="s">
         <v>114</v>
       </c>
       <c r="B1458" s="3">
         <v>41278.5</v>
-      </c>
-      <c r="U1458">
-        <v>6</v>
       </c>
       <c r="AE1458" s="2"/>
       <c r="AK1458" s="2"/>
@@ -37556,16 +37558,16 @@
       <c r="BM1458" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="1459" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+      <c r="BU1458">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1459" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A1459" t="s">
         <v>114</v>
       </c>
       <c r="B1459" s="3">
         <v>41281</v>
-      </c>
-      <c r="U1459">
-        <v>7</v>
       </c>
       <c r="AE1459" s="2"/>
       <c r="AK1459" s="2"/>
@@ -37578,16 +37580,16 @@
       <c r="BM1459" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="1460" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+      <c r="BU1459">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1460" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A1460" t="s">
         <v>114</v>
       </c>
       <c r="B1460" s="3">
         <v>41284.75</v>
-      </c>
-      <c r="U1460">
-        <v>8</v>
       </c>
       <c r="AE1460" s="2"/>
       <c r="AK1460" s="2"/>
@@ -37600,16 +37602,16 @@
       <c r="BM1460" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="1461" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+      <c r="BU1460">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1461" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A1461" t="s">
         <v>114</v>
       </c>
       <c r="B1461" s="3">
         <v>41289.041666666664</v>
-      </c>
-      <c r="U1461">
-        <v>9</v>
       </c>
       <c r="AE1461" s="2"/>
       <c r="AK1461" s="2"/>
@@ -37622,16 +37624,16 @@
       <c r="BM1461" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="1462" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+      <c r="BU1461">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1462" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A1462" t="s">
         <v>114</v>
       </c>
       <c r="B1462" s="3">
         <v>41295.041666666664</v>
-      </c>
-      <c r="U1462">
-        <v>10</v>
       </c>
       <c r="AE1462" s="2"/>
       <c r="AK1462" s="2"/>
@@ -37644,16 +37646,16 @@
       <c r="BM1462" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="1463" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+      <c r="BU1462">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1463" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A1463" t="s">
         <v>114</v>
       </c>
       <c r="B1463" s="3">
         <v>41299.458333333336</v>
-      </c>
-      <c r="U1463">
-        <v>11</v>
       </c>
       <c r="AE1463" s="2"/>
       <c r="AK1463" s="2"/>
@@ -37666,16 +37668,16 @@
       <c r="BM1463" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="1464" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+      <c r="BU1463">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1464" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A1464" t="s">
         <v>114</v>
       </c>
       <c r="B1464" s="3">
         <v>41304.041666666664</v>
-      </c>
-      <c r="U1464">
-        <v>12</v>
       </c>
       <c r="AE1464" s="2"/>
       <c r="AK1464" s="2"/>
@@ -37688,16 +37690,16 @@
       <c r="BM1464" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="1465" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+      <c r="BU1464">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1465" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A1465" t="s">
         <v>114</v>
       </c>
       <c r="B1465" s="3">
         <v>41316.125</v>
-      </c>
-      <c r="U1465">
-        <v>13</v>
       </c>
       <c r="AE1465" s="2"/>
       <c r="AK1465" s="2"/>
@@ -37710,16 +37712,16 @@
       <c r="BM1465" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="1466" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+      <c r="BU1465">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1466" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A1466" t="s">
         <v>114</v>
       </c>
       <c r="B1466" s="3">
         <v>41328.5</v>
-      </c>
-      <c r="U1466">
-        <v>14</v>
       </c>
       <c r="AE1466" s="2"/>
       <c r="AK1466" s="2"/>
@@ -37732,16 +37734,16 @@
       <c r="BM1466" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="1467" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+      <c r="BU1466">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1467" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A1467" t="s">
         <v>114</v>
       </c>
       <c r="B1467" s="3">
         <v>41337.583333333336</v>
-      </c>
-      <c r="U1467">
-        <v>15</v>
       </c>
       <c r="AE1467" s="2"/>
       <c r="AK1467" s="2"/>
@@ -37754,16 +37756,16 @@
       <c r="BM1467" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="1468" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+      <c r="BU1467">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1468" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A1468" t="s">
         <v>114</v>
       </c>
       <c r="B1468" s="3">
         <v>41338.666666666664</v>
-      </c>
-      <c r="U1468">
-        <v>16</v>
       </c>
       <c r="AE1468" s="2"/>
       <c r="AK1468" s="2"/>
@@ -37776,16 +37778,16 @@
       <c r="BM1468" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="1469" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+      <c r="BU1468">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1469" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A1469" t="s">
         <v>114</v>
       </c>
       <c r="B1469" s="3">
         <v>41339.25</v>
-      </c>
-      <c r="U1469">
-        <v>17</v>
       </c>
       <c r="AE1469" s="2"/>
       <c r="AK1469" s="2"/>
@@ -37798,16 +37800,16 @@
       <c r="BM1469" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="1470" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+      <c r="BU1469">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1470" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A1470" t="s">
         <v>114</v>
       </c>
       <c r="B1470" s="3">
         <v>41353</v>
-      </c>
-      <c r="U1470">
-        <v>18</v>
       </c>
       <c r="AE1470" s="2"/>
       <c r="AK1470" s="2"/>
@@ -37820,16 +37822,16 @@
       <c r="BM1470" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="1471" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+      <c r="BU1470">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1471" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A1471" t="s">
         <v>116</v>
       </c>
       <c r="B1471" s="3">
         <v>41259.625</v>
-      </c>
-      <c r="U1471">
-        <v>1</v>
       </c>
       <c r="AE1471" s="2"/>
       <c r="AK1471" s="2"/>
@@ -37842,16 +37844,16 @@
       <c r="BM1471" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="1472" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+      <c r="BU1471">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1472" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A1472" t="s">
         <v>116</v>
       </c>
       <c r="B1472" s="3">
         <v>41263.458333333336</v>
-      </c>
-      <c r="U1472">
-        <v>2</v>
       </c>
       <c r="AE1472" s="2"/>
       <c r="AK1472" s="2"/>
@@ -37864,16 +37866,16 @@
       <c r="BM1472" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="1473" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+      <c r="BU1472">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1473" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A1473" t="s">
         <v>116</v>
       </c>
       <c r="B1473" s="3">
         <v>41270.125</v>
-      </c>
-      <c r="U1473">
-        <v>3</v>
       </c>
       <c r="AE1473" s="2"/>
       <c r="AK1473" s="2"/>
@@ -37886,16 +37888,16 @@
       <c r="BM1473" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="1474" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+      <c r="BU1473">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1474" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A1474" t="s">
         <v>116</v>
       </c>
       <c r="B1474" s="3">
         <v>41271.583333333336</v>
-      </c>
-      <c r="U1474">
-        <v>4</v>
       </c>
       <c r="AE1474" s="2"/>
       <c r="AK1474" s="2"/>
@@ -37908,16 +37910,16 @@
       <c r="BM1474" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="1475" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+      <c r="BU1474">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1475" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A1475" t="s">
         <v>116</v>
       </c>
       <c r="B1475" s="3">
         <v>41277.75</v>
-      </c>
-      <c r="U1475">
-        <v>6</v>
       </c>
       <c r="AE1475" s="2"/>
       <c r="AK1475" s="2"/>
@@ -37930,16 +37932,16 @@
       <c r="BM1475" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="1476" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+      <c r="BU1475">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1476" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A1476" t="s">
         <v>116</v>
       </c>
       <c r="B1476" s="3">
         <v>41280</v>
-      </c>
-      <c r="U1476">
-        <v>7</v>
       </c>
       <c r="AE1476" s="2"/>
       <c r="AK1476" s="2"/>
@@ -37952,16 +37954,16 @@
       <c r="BM1476" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="1477" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+      <c r="BU1476">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1477" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A1477" t="s">
         <v>116</v>
       </c>
       <c r="B1477" s="3">
         <v>41284.833333333336</v>
-      </c>
-      <c r="U1477">
-        <v>8</v>
       </c>
       <c r="AE1477" s="2"/>
       <c r="AK1477" s="2"/>
@@ -37974,16 +37976,16 @@
       <c r="BM1477" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="1478" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+      <c r="BU1477">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1478" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A1478" t="s">
         <v>116</v>
       </c>
       <c r="B1478" s="3">
         <v>41288.083333333336</v>
-      </c>
-      <c r="U1478">
-        <v>9</v>
       </c>
       <c r="AE1478" s="2"/>
       <c r="AK1478" s="2"/>
@@ -37996,16 +37998,16 @@
       <c r="BM1478" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="1479" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+      <c r="BU1478">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1479" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A1479" t="s">
         <v>116</v>
       </c>
       <c r="B1479" s="3">
         <v>41294.041666666664</v>
-      </c>
-      <c r="U1479">
-        <v>10</v>
       </c>
       <c r="AE1479" s="2"/>
       <c r="AK1479" s="2"/>
@@ -38018,16 +38020,16 @@
       <c r="BM1479" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="1480" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+      <c r="BU1479">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1480" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A1480" t="s">
         <v>116</v>
       </c>
       <c r="B1480" s="3">
         <v>41304.708333333336</v>
-      </c>
-      <c r="U1480">
-        <v>11</v>
       </c>
       <c r="AE1480" s="2"/>
       <c r="AK1480" s="2"/>
@@ -38040,16 +38042,16 @@
       <c r="BM1480" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="1481" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+      <c r="BU1480">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1481" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A1481" t="s">
         <v>116</v>
       </c>
       <c r="B1481" s="3">
         <v>41311.833333333336</v>
-      </c>
-      <c r="U1481">
-        <v>12</v>
       </c>
       <c r="AE1481" s="2"/>
       <c r="AK1481" s="2"/>
@@ -38062,16 +38064,16 @@
       <c r="BM1481" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="1482" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+      <c r="BU1481">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1482" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A1482" t="s">
         <v>116</v>
       </c>
       <c r="B1482" s="3">
         <v>41321.333333333336</v>
-      </c>
-      <c r="U1482">
-        <v>13</v>
       </c>
       <c r="AE1482" s="2"/>
       <c r="AK1482" s="2"/>
@@ -38084,16 +38086,16 @@
       <c r="BM1482" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="1483" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+      <c r="BU1482">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1483" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A1483" t="s">
         <v>116</v>
       </c>
       <c r="B1483" s="3">
         <v>41333.166666666664</v>
-      </c>
-      <c r="U1483">
-        <v>14</v>
       </c>
       <c r="AE1483" s="2"/>
       <c r="AK1483" s="2"/>
@@ -38106,16 +38108,16 @@
       <c r="BM1483" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="1484" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+      <c r="BU1483">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1484" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A1484" t="s">
         <v>116</v>
       </c>
       <c r="B1484" s="3">
         <v>41336.85</v>
-      </c>
-      <c r="U1484">
-        <v>15</v>
       </c>
       <c r="AE1484" s="2"/>
       <c r="AK1484" s="2"/>
@@ -38128,16 +38130,16 @@
       <c r="BM1484" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="1485" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+      <c r="BU1484">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1485" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A1485" t="s">
         <v>116</v>
       </c>
       <c r="B1485" s="3">
         <v>41338.375</v>
-      </c>
-      <c r="U1485">
-        <v>16</v>
       </c>
       <c r="AE1485" s="2"/>
       <c r="AK1485" s="2"/>
@@ -38150,16 +38152,16 @@
       <c r="BM1485" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="1486" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+      <c r="BU1485">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1486" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A1486" t="s">
         <v>116</v>
       </c>
       <c r="B1486" s="3">
         <v>41339.083333333336</v>
-      </c>
-      <c r="U1486">
-        <v>17</v>
       </c>
       <c r="AE1486" s="2"/>
       <c r="AK1486" s="2"/>
@@ -38172,16 +38174,16 @@
       <c r="BM1486" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="1487" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+      <c r="BU1486">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1487" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A1487" t="s">
         <v>111</v>
       </c>
       <c r="B1487" s="3">
         <v>41263.666666666664</v>
-      </c>
-      <c r="U1487">
-        <v>1</v>
       </c>
       <c r="AE1487" s="2"/>
       <c r="AK1487" s="2"/>
@@ -38194,16 +38196,16 @@
       <c r="BM1487" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="1488" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+      <c r="BU1487">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1488" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A1488" t="s">
         <v>111</v>
       </c>
       <c r="B1488" s="3">
         <v>41268.125</v>
-      </c>
-      <c r="U1488">
-        <v>2</v>
       </c>
       <c r="AE1488" s="2"/>
       <c r="AK1488" s="2"/>
@@ -38216,16 +38218,16 @@
       <c r="BM1488" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="1489" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+      <c r="BU1488">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1489" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A1489" t="s">
         <v>111</v>
       </c>
       <c r="B1489" s="3">
         <v>41271.583333333336</v>
-      </c>
-      <c r="U1489">
-        <v>3</v>
       </c>
       <c r="AE1489" s="2"/>
       <c r="AK1489" s="2"/>
@@ -38238,16 +38240,16 @@
       <c r="BM1489" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="1490" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+      <c r="BU1489">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1490" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A1490" t="s">
         <v>111</v>
       </c>
       <c r="B1490" s="3">
         <v>41276.75</v>
-      </c>
-      <c r="U1490">
-        <v>4</v>
       </c>
       <c r="AE1490" s="2"/>
       <c r="AK1490" s="2"/>
@@ -38260,16 +38262,16 @@
       <c r="BM1490" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="1491" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+      <c r="BU1490">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1491" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A1491" t="s">
         <v>111</v>
       </c>
       <c r="B1491" s="3">
         <v>41279.75</v>
-      </c>
-      <c r="U1491">
-        <v>5</v>
       </c>
       <c r="AE1491" s="2"/>
       <c r="AK1491" s="2"/>
@@ -38282,16 +38284,16 @@
       <c r="BM1491" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="1492" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+      <c r="BU1491">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1492" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A1492" t="s">
         <v>111</v>
       </c>
       <c r="B1492" s="3">
         <v>41282.25</v>
-      </c>
-      <c r="U1492">
-        <v>6</v>
       </c>
       <c r="AE1492" s="2"/>
       <c r="AK1492" s="2"/>
@@ -38304,16 +38306,16 @@
       <c r="BM1492" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="1493" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+      <c r="BU1492">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1493" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A1493" t="s">
         <v>111</v>
       </c>
       <c r="B1493" s="3">
         <v>41285.041666666664</v>
-      </c>
-      <c r="U1493">
-        <v>7</v>
       </c>
       <c r="AE1493" s="2"/>
       <c r="AK1493" s="2"/>
@@ -38326,16 +38328,16 @@
       <c r="BM1493" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="1494" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+      <c r="BU1493">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1494" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A1494" t="s">
         <v>111</v>
       </c>
       <c r="B1494" s="3">
         <v>41291.083333333336</v>
-      </c>
-      <c r="U1494">
-        <v>8</v>
       </c>
       <c r="AE1494" s="2"/>
       <c r="AK1494" s="2"/>
@@ -38348,16 +38350,16 @@
       <c r="BM1494" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="1495" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+      <c r="BU1494">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1495" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A1495" t="s">
         <v>111</v>
       </c>
       <c r="B1495" s="3">
         <v>41306.875</v>
-      </c>
-      <c r="U1495">
-        <v>9</v>
       </c>
       <c r="AE1495" s="2"/>
       <c r="AK1495" s="2"/>
@@ -38370,16 +38372,16 @@
       <c r="BM1495" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="1496" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+      <c r="BU1495">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1496" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A1496" t="s">
         <v>111</v>
       </c>
       <c r="B1496" s="3">
         <v>41347.583333333336</v>
-      </c>
-      <c r="U1496">
-        <v>11</v>
       </c>
       <c r="AE1496" s="2"/>
       <c r="AK1496" s="2"/>
@@ -38392,16 +38394,16 @@
       <c r="BM1496" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="1497" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+      <c r="BU1496">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1497" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A1497" t="s">
         <v>111</v>
       </c>
       <c r="B1497" s="3">
         <v>41348.566666666666</v>
-      </c>
-      <c r="U1497">
-        <v>12</v>
       </c>
       <c r="AE1497" s="2"/>
       <c r="AK1497" s="2"/>
@@ -38414,16 +38416,16 @@
       <c r="BM1497" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="1498" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+      <c r="BU1497">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1498" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A1498" t="s">
         <v>111</v>
       </c>
       <c r="B1498" s="3">
         <v>41353.35</v>
-      </c>
-      <c r="U1498">
-        <v>13</v>
       </c>
       <c r="AE1498" s="2"/>
       <c r="AK1498" s="2"/>
@@ -38436,16 +38438,16 @@
       <c r="BM1498" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="1499" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+      <c r="BU1498">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1499" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A1499" t="s">
         <v>111</v>
       </c>
       <c r="B1499" s="3">
         <v>41354.408333333333</v>
-      </c>
-      <c r="U1499">
-        <v>14</v>
       </c>
       <c r="AE1499" s="2"/>
       <c r="AK1499" s="2"/>
@@ -38458,16 +38460,16 @@
       <c r="BM1499" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="1500" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+      <c r="BU1499">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1500" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A1500" t="s">
         <v>111</v>
       </c>
       <c r="B1500" s="3">
         <v>41355.444444444445</v>
-      </c>
-      <c r="U1500">
-        <v>15</v>
       </c>
       <c r="AE1500" s="2"/>
       <c r="AK1500" s="2"/>
@@ -38480,16 +38482,16 @@
       <c r="BM1500" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="1501" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+      <c r="BU1500">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1501" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A1501" t="s">
         <v>111</v>
       </c>
       <c r="B1501" s="3">
         <v>41356.066666666666</v>
-      </c>
-      <c r="U1501">
-        <v>16</v>
       </c>
       <c r="AE1501" s="2"/>
       <c r="AK1501" s="2"/>
@@ -38502,16 +38504,16 @@
       <c r="BM1501" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="1502" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+      <c r="BU1501">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1502" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A1502" t="s">
         <v>111</v>
       </c>
       <c r="B1502" s="3">
         <v>41358.25</v>
-      </c>
-      <c r="U1502">
-        <v>17</v>
       </c>
       <c r="AE1502" s="2"/>
       <c r="AK1502" s="2"/>
@@ -38524,16 +38526,16 @@
       <c r="BM1502" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="1503" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+      <c r="BU1502">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1503" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A1503" t="s">
         <v>113</v>
       </c>
       <c r="B1503" s="3">
         <v>41265.25</v>
-      </c>
-      <c r="U1503">
-        <v>1</v>
       </c>
       <c r="AE1503" s="2"/>
       <c r="AK1503" s="2"/>
@@ -38546,16 +38548,16 @@
       <c r="BM1503" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="1504" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+      <c r="BU1503">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1504" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A1504" t="s">
         <v>113</v>
       </c>
       <c r="B1504" s="3">
         <v>41271.041666666664</v>
-      </c>
-      <c r="U1504">
-        <v>2</v>
       </c>
       <c r="AE1504" s="2"/>
       <c r="AK1504" s="2"/>
@@ -38568,16 +38570,16 @@
       <c r="BM1504" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="1505" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+      <c r="BU1504">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1505" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A1505" t="s">
         <v>113</v>
       </c>
       <c r="B1505" s="3">
         <v>41278.708333333336</v>
-      </c>
-      <c r="U1505">
-        <v>3</v>
       </c>
       <c r="AE1505" s="2"/>
       <c r="AK1505" s="2"/>
@@ -38590,16 +38592,16 @@
       <c r="BM1505" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="1506" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+      <c r="BU1505">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1506" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A1506" t="s">
         <v>113</v>
       </c>
       <c r="B1506" s="3">
         <v>41282.625</v>
-      </c>
-      <c r="U1506">
-        <v>4</v>
       </c>
       <c r="AE1506" s="2"/>
       <c r="AK1506" s="2"/>
@@ -38612,16 +38614,16 @@
       <c r="BM1506" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="1507" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+      <c r="BU1506">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1507" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A1507" t="s">
         <v>113</v>
       </c>
       <c r="B1507" s="3">
         <v>41286.833333333336</v>
-      </c>
-      <c r="U1507">
-        <v>5</v>
       </c>
       <c r="AE1507" s="2"/>
       <c r="AK1507" s="2"/>
@@ -38634,16 +38636,16 @@
       <c r="BM1507" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="1508" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+      <c r="BU1507">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1508" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A1508" t="s">
         <v>113</v>
       </c>
       <c r="B1508" s="3">
         <v>41289.208333333336</v>
-      </c>
-      <c r="U1508">
-        <v>6</v>
       </c>
       <c r="AE1508" s="2"/>
       <c r="AK1508" s="2"/>
@@ -38656,16 +38658,16 @@
       <c r="BM1508" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="1509" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+      <c r="BU1508">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1509" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A1509" t="s">
         <v>113</v>
       </c>
       <c r="B1509" s="3">
         <v>41294.333333333336</v>
-      </c>
-      <c r="U1509">
-        <v>7</v>
       </c>
       <c r="AE1509" s="2"/>
       <c r="AK1509" s="2"/>
@@ -38678,16 +38680,16 @@
       <c r="BM1509" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="1510" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+      <c r="BU1509">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1510" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A1510" t="s">
         <v>113</v>
       </c>
       <c r="B1510" s="3">
         <v>41305.041666666664</v>
-      </c>
-      <c r="U1510">
-        <v>8</v>
       </c>
       <c r="AE1510" s="2"/>
       <c r="AK1510" s="2"/>
@@ -38700,16 +38702,16 @@
       <c r="BM1510" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="1511" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+      <c r="BU1510">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1511" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A1511" t="s">
         <v>113</v>
       </c>
       <c r="B1511" s="3">
         <v>41327.791666666664</v>
-      </c>
-      <c r="U1511">
-        <v>9</v>
       </c>
       <c r="AE1511" s="2"/>
       <c r="AK1511" s="2"/>
@@ -38722,16 +38724,16 @@
       <c r="BM1511" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="1512" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+      <c r="BU1511">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1512" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A1512" t="s">
         <v>113</v>
       </c>
       <c r="B1512" s="3">
         <v>41350.008333333331</v>
-      </c>
-      <c r="U1512">
-        <v>10</v>
       </c>
       <c r="AE1512" s="2"/>
       <c r="AK1512" s="2"/>
@@ -38744,16 +38746,16 @@
       <c r="BM1512" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="1513" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+      <c r="BU1512">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1513" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A1513" t="s">
         <v>113</v>
       </c>
       <c r="B1513" s="3">
         <v>41356</v>
-      </c>
-      <c r="U1513">
-        <v>11</v>
       </c>
       <c r="AE1513" s="2"/>
       <c r="AK1513" s="2"/>
@@ -38766,16 +38768,16 @@
       <c r="BM1513" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="1514" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+      <c r="BU1513">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1514" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A1514" t="s">
         <v>113</v>
       </c>
       <c r="B1514" s="3">
         <v>41357.944444444445</v>
-      </c>
-      <c r="U1514">
-        <v>12</v>
       </c>
       <c r="AE1514" s="2"/>
       <c r="AK1514" s="2"/>
@@ -38788,16 +38790,16 @@
       <c r="BM1514" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="1515" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+      <c r="BU1514">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1515" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A1515" t="s">
         <v>113</v>
       </c>
       <c r="B1515" s="3">
         <v>41359</v>
-      </c>
-      <c r="U1515">
-        <v>13</v>
       </c>
       <c r="AE1515" s="2"/>
       <c r="AK1515" s="2"/>
@@ -38810,16 +38812,16 @@
       <c r="BM1515" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="1516" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+      <c r="BU1515">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1516" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A1516" t="s">
         <v>115</v>
       </c>
       <c r="B1516" s="3">
         <v>41264.416666666664</v>
-      </c>
-      <c r="U1516">
-        <v>1</v>
       </c>
       <c r="AE1516" s="2"/>
       <c r="AK1516" s="2"/>
@@ -38832,16 +38834,16 @@
       <c r="BM1516" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="1517" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+      <c r="BU1516">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1517" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A1517" t="s">
         <v>115</v>
       </c>
       <c r="B1517" s="3">
         <v>41270.083333333336</v>
-      </c>
-      <c r="U1517">
-        <v>2</v>
       </c>
       <c r="AE1517" s="2"/>
       <c r="AK1517" s="2"/>
@@ -38854,16 +38856,16 @@
       <c r="BM1517" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="1518" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+      <c r="BU1517">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1518" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A1518" t="s">
         <v>115</v>
       </c>
       <c r="B1518" s="3">
         <v>41276.5</v>
-      </c>
-      <c r="U1518">
-        <v>3</v>
       </c>
       <c r="AE1518" s="2"/>
       <c r="AK1518" s="2"/>
@@ -38876,16 +38878,16 @@
       <c r="BM1518" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="1519" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+      <c r="BU1518">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1519" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A1519" t="s">
         <v>115</v>
       </c>
       <c r="B1519" s="3">
         <v>41285.083333333336</v>
-      </c>
-      <c r="U1519">
-        <v>4</v>
       </c>
       <c r="AE1519" s="2"/>
       <c r="AK1519" s="2"/>
@@ -38898,16 +38900,16 @@
       <c r="BM1519" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="1520" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+      <c r="BU1519">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1520" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A1520" t="s">
         <v>115</v>
       </c>
       <c r="B1520" s="3">
         <v>41291.208333333336</v>
-      </c>
-      <c r="U1520">
-        <v>5</v>
       </c>
       <c r="AE1520" s="2"/>
       <c r="AK1520" s="2"/>
@@ -38920,16 +38922,16 @@
       <c r="BM1520" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="1521" spans="1:68" hidden="1" x14ac:dyDescent="0.25">
+      <c r="BU1520">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1521" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A1521" t="s">
         <v>115</v>
       </c>
       <c r="B1521" s="3">
         <v>41294.458333333336</v>
-      </c>
-      <c r="U1521">
-        <v>6</v>
       </c>
       <c r="AE1521" s="2"/>
       <c r="AK1521" s="2"/>
@@ -38942,16 +38944,16 @@
       <c r="BM1521" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="1522" spans="1:68" hidden="1" x14ac:dyDescent="0.25">
+      <c r="BU1521">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1522" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A1522" t="s">
         <v>115</v>
       </c>
       <c r="B1522" s="3">
         <v>41307</v>
-      </c>
-      <c r="U1522">
-        <v>7</v>
       </c>
       <c r="AE1522" s="2"/>
       <c r="AK1522" s="2"/>
@@ -38964,16 +38966,16 @@
       <c r="BM1522" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="1523" spans="1:68" hidden="1" x14ac:dyDescent="0.25">
+      <c r="BU1522">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1523" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A1523" t="s">
         <v>115</v>
       </c>
       <c r="B1523" s="3">
         <v>41333.583333333336</v>
-      </c>
-      <c r="U1523">
-        <v>8</v>
       </c>
       <c r="AE1523" s="2"/>
       <c r="AK1523" s="2"/>
@@ -38986,16 +38988,16 @@
       <c r="BM1523" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="1524" spans="1:68" hidden="1" x14ac:dyDescent="0.25">
+      <c r="BU1523">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1524" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A1524" t="s">
         <v>115</v>
       </c>
       <c r="B1524" s="3">
         <v>41351.775000000001</v>
-      </c>
-      <c r="U1524">
-        <v>10</v>
       </c>
       <c r="AE1524" s="2"/>
       <c r="AK1524" s="2"/>
@@ -39008,16 +39010,16 @@
       <c r="BM1524" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="1525" spans="1:68" hidden="1" x14ac:dyDescent="0.25">
+      <c r="BU1524">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1525" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A1525" t="s">
         <v>115</v>
       </c>
       <c r="B1525" s="3">
         <v>41357.5</v>
-      </c>
-      <c r="U1525">
-        <v>11</v>
       </c>
       <c r="AE1525" s="2"/>
       <c r="AK1525" s="2"/>
@@ -39030,8 +39032,11 @@
       <c r="BM1525" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="1526" spans="1:68" hidden="1" x14ac:dyDescent="0.25">
+      <c r="BU1525">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1526" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A1526" t="s">
         <v>112</v>
       </c>
@@ -39047,7 +39052,7 @@
         <v>605.9</v>
       </c>
     </row>
-    <row r="1527" spans="1:68" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1527" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A1527" t="s">
         <v>112</v>
       </c>
@@ -39063,7 +39068,7 @@
         <v>1163.5999999999999</v>
       </c>
     </row>
-    <row r="1528" spans="1:68" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1528" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A1528" t="s">
         <v>112</v>
       </c>
@@ -39079,7 +39084,7 @@
         <v>2315.9</v>
       </c>
     </row>
-    <row r="1529" spans="1:68" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1529" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A1529" t="s">
         <v>112</v>
       </c>
@@ -39095,7 +39100,7 @@
         <v>4900</v>
       </c>
     </row>
-    <row r="1530" spans="1:68" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1530" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A1530" t="s">
         <v>112</v>
       </c>
@@ -39111,7 +39116,7 @@
         <v>8727.4</v>
       </c>
     </row>
-    <row r="1531" spans="1:68" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1531" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A1531" t="s">
         <v>112</v>
       </c>
@@ -39127,7 +39132,7 @@
         <v>14670.8</v>
       </c>
     </row>
-    <row r="1532" spans="1:68" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1532" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A1532" t="s">
         <v>112</v>
       </c>
@@ -39143,7 +39148,7 @@
         <v>23059.7</v>
       </c>
     </row>
-    <row r="1533" spans="1:68" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1533" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A1533" t="s">
         <v>112</v>
       </c>
@@ -39159,7 +39164,7 @@
         <v>35057.4</v>
       </c>
     </row>
-    <row r="1534" spans="1:68" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1534" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A1534" t="s">
         <v>112</v>
       </c>
@@ -39175,7 +39180,7 @@
         <v>44902.5</v>
       </c>
     </row>
-    <row r="1535" spans="1:68" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1535" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A1535" t="s">
         <v>112</v>
       </c>
@@ -39191,7 +39196,7 @@
         <v>47643.8</v>
       </c>
     </row>
-    <row r="1536" spans="1:68" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1536" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A1536" t="s">
         <v>112</v>
       </c>
@@ -39207,7 +39212,7 @@
         <v>46220.3</v>
       </c>
     </row>
-    <row r="1537" spans="1:68" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1537" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A1537" t="s">
         <v>112</v>
       </c>
@@ -39223,7 +39228,7 @@
         <v>38753.1</v>
       </c>
     </row>
-    <row r="1538" spans="1:68" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1538" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A1538" t="s">
         <v>112</v>
       </c>
@@ -39239,7 +39244,7 @@
         <v>31728.400000000001</v>
       </c>
     </row>
-    <row r="1539" spans="1:68" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1539" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A1539" t="s">
         <v>112</v>
       </c>
@@ -39255,7 +39260,7 @@
         <v>24182.2</v>
       </c>
     </row>
-    <row r="1540" spans="1:68" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1540" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A1540" t="s">
         <v>112</v>
       </c>
@@ -39271,7 +39276,7 @@
         <v>17112.099999999999</v>
       </c>
     </row>
-    <row r="1541" spans="1:68" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1541" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A1541" t="s">
         <v>112</v>
       </c>
@@ -39287,7 +39292,7 @@
         <v>9192.7999999999993</v>
       </c>
     </row>
-    <row r="1542" spans="1:68" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1542" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A1542" t="s">
         <v>112</v>
       </c>
@@ -39303,7 +39308,7 @@
         <v>2828.1</v>
       </c>
     </row>
-    <row r="1543" spans="1:68" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1543" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A1543" t="s">
         <v>112</v>
       </c>
@@ -39319,7 +39324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1544" spans="1:68" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1544" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A1544" t="s">
         <v>114</v>
       </c>
@@ -39335,7 +39340,7 @@
         <v>629.6</v>
       </c>
     </row>
-    <row r="1545" spans="1:68" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1545" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A1545" t="s">
         <v>114</v>
       </c>
@@ -39351,7 +39356,7 @@
         <v>1205.5</v>
       </c>
     </row>
-    <row r="1546" spans="1:68" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1546" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A1546" t="s">
         <v>114</v>
       </c>
@@ -39367,7 +39372,7 @@
         <v>2341.6999999999998</v>
       </c>
     </row>
-    <row r="1547" spans="1:68" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1547" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A1547" t="s">
         <v>114</v>
       </c>
@@ -39383,7 +39388,7 @@
         <v>5359.9</v>
       </c>
     </row>
-    <row r="1548" spans="1:68" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1548" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A1548" t="s">
         <v>114</v>
       </c>
@@ -39399,7 +39404,7 @@
         <v>9246.2000000000007</v>
       </c>
     </row>
-    <row r="1549" spans="1:68" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1549" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A1549" t="s">
         <v>114</v>
       </c>
@@ -39415,7 +39420,7 @@
         <v>15347.3</v>
       </c>
     </row>
-    <row r="1550" spans="1:68" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1550" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A1550" t="s">
         <v>114</v>
       </c>
@@ -39431,7 +39436,7 @@
         <v>24415.3</v>
       </c>
     </row>
-    <row r="1551" spans="1:68" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1551" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A1551" t="s">
         <v>114</v>
       </c>
@@ -39447,7 +39452,7 @@
         <v>37115.599999999999</v>
       </c>
     </row>
-    <row r="1552" spans="1:68" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1552" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A1552" t="s">
         <v>114</v>
       </c>
@@ -39463,7 +39468,7 @@
         <v>46586.9</v>
       </c>
     </row>
-    <row r="1553" spans="1:68" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1553" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A1553" t="s">
         <v>114</v>
       </c>
@@ -39479,7 +39484,7 @@
         <v>47851.4</v>
       </c>
     </row>
-    <row r="1554" spans="1:68" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1554" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A1554" t="s">
         <v>114</v>
       </c>
@@ -39495,7 +39500,7 @@
         <v>52535</v>
       </c>
     </row>
-    <row r="1555" spans="1:68" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1555" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A1555" t="s">
         <v>114</v>
       </c>
@@ -39511,7 +39516,7 @@
         <v>44808.4</v>
       </c>
     </row>
-    <row r="1556" spans="1:68" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1556" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A1556" t="s">
         <v>114</v>
       </c>
@@ -39527,7 +39532,7 @@
         <v>37140.6</v>
       </c>
     </row>
-    <row r="1557" spans="1:68" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1557" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A1557" t="s">
         <v>114</v>
       </c>
@@ -39543,7 +39548,7 @@
         <v>30169.1</v>
       </c>
     </row>
-    <row r="1558" spans="1:68" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1558" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A1558" t="s">
         <v>114</v>
       </c>
@@ -39559,7 +39564,7 @@
         <v>21543</v>
       </c>
     </row>
-    <row r="1559" spans="1:68" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1559" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A1559" t="s">
         <v>114</v>
       </c>
@@ -39575,7 +39580,7 @@
         <v>12088.4</v>
       </c>
     </row>
-    <row r="1560" spans="1:68" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1560" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A1560" t="s">
         <v>114</v>
       </c>
@@ -39591,7 +39596,7 @@
         <v>6284.7</v>
       </c>
     </row>
-    <row r="1561" spans="1:68" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1561" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A1561" t="s">
         <v>114</v>
       </c>
@@ -39607,7 +39612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1562" spans="1:68" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1562" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A1562" t="s">
         <v>116</v>
       </c>
@@ -39623,7 +39628,7 @@
         <v>608.9</v>
       </c>
     </row>
-    <row r="1563" spans="1:68" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1563" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A1563" t="s">
         <v>116</v>
       </c>
@@ -39639,7 +39644,7 @@
         <v>1185.3</v>
       </c>
     </row>
-    <row r="1564" spans="1:68" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1564" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A1564" t="s">
         <v>116</v>
       </c>
@@ -39655,7 +39660,7 @@
         <v>2299.9</v>
       </c>
     </row>
-    <row r="1565" spans="1:68" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1565" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A1565" t="s">
         <v>116</v>
       </c>
@@ -39671,7 +39676,7 @@
         <v>4996.7</v>
       </c>
     </row>
-    <row r="1566" spans="1:68" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1566" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A1566" t="s">
         <v>116</v>
       </c>
@@ -39687,7 +39692,7 @@
         <v>8741.9</v>
       </c>
     </row>
-    <row r="1567" spans="1:68" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1567" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A1567" t="s">
         <v>116</v>
       </c>
@@ -39703,7 +39708,7 @@
         <v>14771</v>
       </c>
     </row>
-    <row r="1568" spans="1:68" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1568" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A1568" t="s">
         <v>116</v>
       </c>
@@ -39719,7 +39724,7 @@
         <v>23455.9</v>
       </c>
     </row>
-    <row r="1569" spans="1:68" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1569" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A1569" t="s">
         <v>116</v>
       </c>
@@ -39735,7 +39740,7 @@
         <v>36342.199999999997</v>
       </c>
     </row>
-    <row r="1570" spans="1:68" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1570" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A1570" t="s">
         <v>116</v>
       </c>
@@ -39751,7 +39756,7 @@
         <v>45933.8</v>
       </c>
     </row>
-    <row r="1571" spans="1:68" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1571" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A1571" t="s">
         <v>116</v>
       </c>
@@ -39767,7 +39772,7 @@
         <v>49844.4</v>
       </c>
     </row>
-    <row r="1572" spans="1:68" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1572" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A1572" t="s">
         <v>116</v>
       </c>
@@ -39783,7 +39788,7 @@
         <v>49579.6</v>
       </c>
     </row>
-    <row r="1573" spans="1:68" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1573" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A1573" t="s">
         <v>116</v>
       </c>
@@ -39799,7 +39804,7 @@
         <v>43162.8</v>
       </c>
     </row>
-    <row r="1574" spans="1:68" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1574" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A1574" t="s">
         <v>116</v>
       </c>
@@ -39815,7 +39820,7 @@
         <v>36567.5</v>
       </c>
     </row>
-    <row r="1575" spans="1:68" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1575" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A1575" t="s">
         <v>116</v>
       </c>
@@ -39831,7 +39836,7 @@
         <v>28781.599999999999</v>
       </c>
     </row>
-    <row r="1576" spans="1:68" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1576" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A1576" t="s">
         <v>116</v>
       </c>
@@ -39847,7 +39852,7 @@
         <v>20321.3</v>
       </c>
     </row>
-    <row r="1577" spans="1:68" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1577" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A1577" t="s">
         <v>116</v>
       </c>
@@ -39863,7 +39868,7 @@
         <v>11226.7</v>
       </c>
     </row>
-    <row r="1578" spans="1:68" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1578" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A1578" t="s">
         <v>116</v>
       </c>
@@ -39879,7 +39884,7 @@
         <v>4008.8</v>
       </c>
     </row>
-    <row r="1579" spans="1:68" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1579" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A1579" t="s">
         <v>116</v>
       </c>
@@ -39895,7 +39900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1580" spans="1:68" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1580" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A1580" t="s">
         <v>111</v>
       </c>
@@ -39911,7 +39916,7 @@
         <v>609.6</v>
       </c>
     </row>
-    <row r="1581" spans="1:68" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1581" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A1581" t="s">
         <v>111</v>
       </c>
@@ -39927,7 +39932,7 @@
         <v>1197.2</v>
       </c>
     </row>
-    <row r="1582" spans="1:68" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1582" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A1582" t="s">
         <v>111</v>
       </c>
@@ -39943,7 +39948,7 @@
         <v>2479.8000000000002</v>
       </c>
     </row>
-    <row r="1583" spans="1:68" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1583" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A1583" t="s">
         <v>111</v>
       </c>
@@ -39959,7 +39964,7 @@
         <v>5212.3999999999996</v>
       </c>
     </row>
-    <row r="1584" spans="1:68" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1584" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A1584" t="s">
         <v>111</v>
       </c>
@@ -39975,7 +39980,7 @@
         <v>8997.2000000000007</v>
       </c>
     </row>
-    <row r="1585" spans="1:68" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1585" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A1585" t="s">
         <v>111</v>
       </c>
@@ -39991,7 +39996,7 @@
         <v>15796.6</v>
       </c>
     </row>
-    <row r="1586" spans="1:68" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1586" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A1586" t="s">
         <v>111</v>
       </c>
@@ -40007,7 +40012,7 @@
         <v>27143.1</v>
       </c>
     </row>
-    <row r="1587" spans="1:68" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1587" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A1587" t="s">
         <v>111</v>
       </c>
@@ -40023,7 +40028,7 @@
         <v>40096.300000000003</v>
       </c>
     </row>
-    <row r="1588" spans="1:68" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1588" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A1588" t="s">
         <v>111</v>
       </c>
@@ -40039,7 +40044,7 @@
         <v>51259.1</v>
       </c>
     </row>
-    <row r="1589" spans="1:68" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1589" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A1589" t="s">
         <v>111</v>
       </c>
@@ -40055,7 +40060,7 @@
         <v>58447.5</v>
       </c>
     </row>
-    <row r="1590" spans="1:68" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1590" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A1590" t="s">
         <v>111</v>
       </c>
@@ -40071,7 +40076,7 @@
         <v>58820.9</v>
       </c>
     </row>
-    <row r="1591" spans="1:68" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1591" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A1591" t="s">
         <v>111</v>
       </c>
@@ -40087,7 +40092,7 @@
         <v>52347.8</v>
       </c>
     </row>
-    <row r="1592" spans="1:68" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1592" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A1592" t="s">
         <v>111</v>
       </c>
@@ -40103,7 +40108,7 @@
         <v>44758.1</v>
       </c>
     </row>
-    <row r="1593" spans="1:68" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1593" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A1593" t="s">
         <v>111</v>
       </c>
@@ -40119,7 +40124,7 @@
         <v>34940.9</v>
       </c>
     </row>
-    <row r="1594" spans="1:68" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1594" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A1594" t="s">
         <v>111</v>
       </c>
@@ -40135,7 +40140,7 @@
         <v>24662.2</v>
       </c>
     </row>
-    <row r="1595" spans="1:68" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1595" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A1595" t="s">
         <v>111</v>
       </c>
@@ -40151,7 +40156,7 @@
         <v>11424.4</v>
       </c>
     </row>
-    <row r="1596" spans="1:68" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1596" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A1596" t="s">
         <v>111</v>
       </c>
@@ -40167,7 +40172,7 @@
         <v>2212.1999999999998</v>
       </c>
     </row>
-    <row r="1597" spans="1:68" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1597" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A1597" t="s">
         <v>111</v>
       </c>
@@ -40183,7 +40188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1598" spans="1:68" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1598" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A1598" t="s">
         <v>113</v>
       </c>
@@ -40199,7 +40204,7 @@
         <v>641.1</v>
       </c>
     </row>
-    <row r="1599" spans="1:68" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1599" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A1599" t="s">
         <v>113</v>
       </c>
@@ -40215,7 +40220,7 @@
         <v>1255.7</v>
       </c>
     </row>
-    <row r="1600" spans="1:68" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1600" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A1600" t="s">
         <v>113</v>
       </c>
@@ -40231,7 +40236,7 @@
         <v>2478.4</v>
       </c>
     </row>
-    <row r="1601" spans="1:68" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1601" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A1601" t="s">
         <v>113</v>
       </c>
@@ -40247,7 +40252,7 @@
         <v>5490.7</v>
       </c>
     </row>
-    <row r="1602" spans="1:68" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1602" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A1602" t="s">
         <v>113</v>
       </c>
@@ -40263,7 +40268,7 @@
         <v>9941.7999999999993</v>
       </c>
     </row>
-    <row r="1603" spans="1:68" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1603" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A1603" t="s">
         <v>113</v>
       </c>
@@ -40279,7 +40284,7 @@
         <v>17003.400000000001</v>
       </c>
     </row>
-    <row r="1604" spans="1:68" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1604" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A1604" t="s">
         <v>113</v>
       </c>
@@ -40295,7 +40300,7 @@
         <v>29128.6</v>
       </c>
     </row>
-    <row r="1605" spans="1:68" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1605" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A1605" t="s">
         <v>113</v>
       </c>
@@ -40311,7 +40316,7 @@
         <v>41136.300000000003</v>
       </c>
     </row>
-    <row r="1606" spans="1:68" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1606" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A1606" t="s">
         <v>113</v>
       </c>
@@ -40327,7 +40332,7 @@
         <v>55179.4</v>
       </c>
     </row>
-    <row r="1607" spans="1:68" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1607" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A1607" t="s">
         <v>113</v>
       </c>
@@ -40343,7 +40348,7 @@
         <v>64546.8</v>
       </c>
     </row>
-    <row r="1608" spans="1:68" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1608" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A1608" t="s">
         <v>113</v>
       </c>
@@ -40359,7 +40364,7 @@
         <v>67237.399999999994</v>
       </c>
     </row>
-    <row r="1609" spans="1:68" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1609" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A1609" t="s">
         <v>113</v>
       </c>
@@ -40375,7 +40380,7 @@
         <v>63228.3</v>
       </c>
     </row>
-    <row r="1610" spans="1:68" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1610" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A1610" t="s">
         <v>113</v>
       </c>
@@ -40391,7 +40396,7 @@
         <v>56829.7</v>
       </c>
     </row>
-    <row r="1611" spans="1:68" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1611" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A1611" t="s">
         <v>113</v>
       </c>
@@ -40407,7 +40412,7 @@
         <v>48606.2</v>
       </c>
     </row>
-    <row r="1612" spans="1:68" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1612" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A1612" t="s">
         <v>113</v>
       </c>
@@ -40423,7 +40428,7 @@
         <v>35242</v>
       </c>
     </row>
-    <row r="1613" spans="1:68" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1613" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A1613" t="s">
         <v>113</v>
       </c>
@@ -40439,7 +40444,7 @@
         <v>19451</v>
       </c>
     </row>
-    <row r="1614" spans="1:68" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1614" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A1614" t="s">
         <v>113</v>
       </c>
@@ -40455,7 +40460,7 @@
         <v>5854.9</v>
       </c>
     </row>
-    <row r="1615" spans="1:68" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1615" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A1615" t="s">
         <v>113</v>
       </c>
@@ -40471,7 +40476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1616" spans="1:68" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1616" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A1616" t="s">
         <v>115</v>
       </c>
@@ -40487,7 +40492,7 @@
         <v>627.20000000000005</v>
       </c>
     </row>
-    <row r="1617" spans="1:68" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1617" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A1617" t="s">
         <v>115</v>
       </c>
@@ -40503,7 +40508,7 @@
         <v>1220.7</v>
       </c>
     </row>
-    <row r="1618" spans="1:68" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1618" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A1618" t="s">
         <v>115</v>
       </c>
@@ -40519,7 +40524,7 @@
         <v>2437.3000000000002</v>
       </c>
     </row>
-    <row r="1619" spans="1:68" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1619" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A1619" t="s">
         <v>115</v>
       </c>
@@ -40535,7 +40540,7 @@
         <v>5209.1000000000004</v>
       </c>
     </row>
-    <row r="1620" spans="1:68" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1620" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A1620" t="s">
         <v>115</v>
       </c>
@@ -40551,7 +40556,7 @@
         <v>9400.1</v>
       </c>
     </row>
-    <row r="1621" spans="1:68" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1621" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A1621" t="s">
         <v>115</v>
       </c>
@@ -40567,7 +40572,7 @@
         <v>16245.7</v>
       </c>
     </row>
-    <row r="1622" spans="1:68" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1622" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A1622" t="s">
         <v>115</v>
       </c>
@@ -40583,7 +40588,7 @@
         <v>30406.3</v>
       </c>
     </row>
-    <row r="1623" spans="1:68" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1623" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A1623" t="s">
         <v>115</v>
       </c>
@@ -40599,7 +40604,7 @@
         <v>42757.8</v>
       </c>
     </row>
-    <row r="1624" spans="1:68" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1624" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A1624" t="s">
         <v>115</v>
       </c>
@@ -40615,7 +40620,7 @@
         <v>54106.9</v>
       </c>
     </row>
-    <row r="1625" spans="1:68" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1625" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A1625" t="s">
         <v>115</v>
       </c>
@@ -40631,7 +40636,7 @@
         <v>62712.800000000003</v>
       </c>
     </row>
-    <row r="1626" spans="1:68" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1626" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A1626" t="s">
         <v>115</v>
       </c>
@@ -40647,7 +40652,7 @@
         <v>65598.100000000006</v>
       </c>
     </row>
-    <row r="1627" spans="1:68" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1627" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A1627" t="s">
         <v>115</v>
       </c>
@@ -40663,7 +40668,7 @@
         <v>62021.3</v>
       </c>
     </row>
-    <row r="1628" spans="1:68" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1628" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A1628" t="s">
         <v>115</v>
       </c>
@@ -40679,7 +40684,7 @@
         <v>56467.8</v>
       </c>
     </row>
-    <row r="1629" spans="1:68" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1629" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A1629" t="s">
         <v>115</v>
       </c>
@@ -40695,7 +40700,7 @@
         <v>47887.5</v>
       </c>
     </row>
-    <row r="1630" spans="1:68" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1630" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A1630" t="s">
         <v>115</v>
       </c>
@@ -40711,7 +40716,7 @@
         <v>30711.8</v>
       </c>
     </row>
-    <row r="1631" spans="1:68" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1631" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A1631" t="s">
         <v>115</v>
       </c>
@@ -40727,7 +40732,7 @@
         <v>18279.400000000001</v>
       </c>
     </row>
-    <row r="1632" spans="1:68" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1632" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A1632" t="s">
         <v>115</v>
       </c>
@@ -40743,7 +40748,7 @@
         <v>4577.3</v>
       </c>
     </row>
-    <row r="1633" spans="1:68" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1633" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A1633" t="s">
         <v>115</v>
       </c>
@@ -40776,17 +40781,6 @@
         <filter val="Lincoln2012NitNilIrrNil"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="1">
-      <filters>
-        <dateGroupItem year="2013" month="1" dateTimeGrouping="month"/>
-        <dateGroupItem year="2013" month="2" dateTimeGrouping="month"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="3">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Tests/Validation/Maize/Observations/MaizeObservations.xlsx
+++ b/Tests/Validation/Maize/Observations/MaizeObservations.xlsx
@@ -742,9 +742,6 @@
     <t>Maize.Stem.NConc</t>
   </si>
   <si>
-    <t>Maize.Spike.Nconc</t>
-  </si>
-  <si>
     <t>Maize.Spike.N</t>
   </si>
   <si>
@@ -758,6 +755,9 @@
   </si>
   <si>
     <t>NodesStartedSenescing</t>
+  </si>
+  <si>
+    <t>Maize.Spike.NConc</t>
   </si>
 </sst>
 </file>
@@ -1141,10 +1141,10 @@
   <dimension ref="A1:BU1635"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="BP74" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AC2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BU74" sqref="BU74"/>
+      <selection pane="bottomRight" activeCell="AI74" sqref="AI74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1254,13 +1254,13 @@
         <v>235</v>
       </c>
       <c r="AH1" t="s">
+        <v>239</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>244</v>
+      </c>
+      <c r="AJ1" t="s">
         <v>240</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>239</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>241</v>
       </c>
       <c r="AK1" s="2" t="s">
         <v>230</v>
@@ -1365,13 +1365,13 @@
         <v>3</v>
       </c>
       <c r="BS1" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="BT1" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="BT1" s="1" t="s">
+      <c r="BU1" s="1" t="s">
         <v>243</v>
-      </c>
-      <c r="BU1" s="1" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="2" spans="1:73" hidden="1" x14ac:dyDescent="0.25">

--- a/Tests/Validation/Maize/Observations/MaizeObservations.xlsx
+++ b/Tests/Validation/Maize/Observations/MaizeObservations.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2342" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2344" uniqueCount="247">
   <si>
     <t>AreaLargestLeaf</t>
   </si>
@@ -1146,10 +1146,10 @@
   <dimension ref="A1:BU1649"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C1630" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="Z1633" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G1633" sqref="G1633"/>
+      <selection pane="bottomRight" activeCell="AC1650" sqref="AC1650"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41141,6 +41141,9 @@
       <c r="Z1641">
         <v>0</v>
       </c>
+      <c r="AC1641" t="s">
+        <v>202</v>
+      </c>
       <c r="AK1641">
         <v>6.2259565989999999</v>
       </c>
@@ -41522,6 +41525,9 @@
       </c>
       <c r="Z1649">
         <v>0</v>
+      </c>
+      <c r="AC1649" t="s">
+        <v>202</v>
       </c>
       <c r="AK1649">
         <v>5.4365841970000002</v>

--- a/Tests/Validation/Maize/Observations/MaizeObservations.xlsx
+++ b/Tests/Validation/Maize/Observations/MaizeObservations.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2344" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2356" uniqueCount="259">
   <si>
     <t>AreaLargestLeaf</t>
   </si>
@@ -765,6 +765,42 @@
   <si>
     <t>Lewis2017SowingLate</t>
   </si>
+  <si>
+    <t>Spain2009NRate0NWeatherNorm</t>
+  </si>
+  <si>
+    <t>Spain2009NRate0NWeatherPre</t>
+  </si>
+  <si>
+    <t>Spain2009NRate0NWeatherPost</t>
+  </si>
+  <si>
+    <t>Spain2009NRate200NWeatherNorm</t>
+  </si>
+  <si>
+    <t>Spain2009NRate200NWeatherPre</t>
+  </si>
+  <si>
+    <t>Spain2009NRate200NWeatherPost</t>
+  </si>
+  <si>
+    <t>SpainPioneer2009NRate0NWeatherNorm</t>
+  </si>
+  <si>
+    <t>SpainPioneer2009NRate0NWeatherPre</t>
+  </si>
+  <si>
+    <t>SpainPioneer2009NRate0NWeatherPost</t>
+  </si>
+  <si>
+    <t>SpainPioneer2009NRate200NWeatherNorm</t>
+  </si>
+  <si>
+    <t>SpainPioneer2009NRate200NWeatherPre</t>
+  </si>
+  <si>
+    <t>SpainPioneer2009NRate200NWeatherPost</t>
+  </si>
 </sst>
 </file>
 
@@ -1143,13 +1179,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BU1649"/>
+  <dimension ref="A1:BU1661"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="Z1633" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AC1650" sqref="AC1650"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41539,6 +41575,270 @@
         <v>707.5648357</v>
       </c>
     </row>
+    <row r="1650" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A1650" t="s">
+        <v>247</v>
+      </c>
+      <c r="B1650" s="3">
+        <v>40091</v>
+      </c>
+      <c r="E1650">
+        <v>2556.8587984283336</v>
+      </c>
+      <c r="H1650">
+        <v>1.3108717702628638E-2</v>
+      </c>
+      <c r="J1650">
+        <v>3909.0756778755549</v>
+      </c>
+      <c r="K1650">
+        <v>0.30587933759142155</v>
+      </c>
+      <c r="L1650">
+        <v>1201.4442178030299</v>
+      </c>
+    </row>
+    <row r="1651" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A1651" t="s">
+        <v>248</v>
+      </c>
+      <c r="B1651" s="3">
+        <v>40091</v>
+      </c>
+      <c r="E1651">
+        <v>2209.8482141368268</v>
+      </c>
+      <c r="J1651">
+        <v>2680.7108603466663</v>
+      </c>
+      <c r="K1651">
+        <v>0.29427792535041869</v>
+      </c>
+      <c r="L1651">
+        <v>822.42343230160679</v>
+      </c>
+    </row>
+    <row r="1652" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A1652" t="s">
+        <v>249</v>
+      </c>
+      <c r="B1652" s="3">
+        <v>40091</v>
+      </c>
+      <c r="E1652">
+        <v>2485.9570669411669</v>
+      </c>
+      <c r="J1652">
+        <v>4096.9386635933333</v>
+      </c>
+      <c r="K1652">
+        <v>0.27611396697141632</v>
+      </c>
+      <c r="L1652">
+        <v>1186.32868369781</v>
+      </c>
+    </row>
+    <row r="1653" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A1653" t="s">
+        <v>250</v>
+      </c>
+      <c r="B1653" s="3">
+        <v>40091</v>
+      </c>
+      <c r="E1653">
+        <v>2627.9274020932007</v>
+      </c>
+      <c r="H1653">
+        <v>1.4285967304598223E-2</v>
+      </c>
+      <c r="J1653">
+        <v>4228.8470972333325</v>
+      </c>
+      <c r="K1653">
+        <v>0.3067762931003567</v>
+      </c>
+      <c r="L1653">
+        <v>1298.2348588137133</v>
+      </c>
+    </row>
+    <row r="1654" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A1654" t="s">
+        <v>251</v>
+      </c>
+      <c r="B1654" s="3">
+        <v>40091</v>
+      </c>
+      <c r="E1654">
+        <v>2015.2735938089997</v>
+      </c>
+      <c r="J1654">
+        <v>3805.6675524000002</v>
+      </c>
+      <c r="K1654">
+        <v>0.27693807817661015</v>
+      </c>
+      <c r="L1654">
+        <v>1053.93425814074</v>
+      </c>
+    </row>
+    <row r="1655" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A1655" t="s">
+        <v>252</v>
+      </c>
+      <c r="B1655" s="3">
+        <v>40091</v>
+      </c>
+      <c r="E1655">
+        <v>2007.1263781119555</v>
+      </c>
+      <c r="J1655">
+        <v>4596.9866526888891</v>
+      </c>
+      <c r="K1655">
+        <v>0.23208073932116055</v>
+      </c>
+      <c r="L1655">
+        <v>1057.7012967424134</v>
+      </c>
+    </row>
+    <row r="1656" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A1656" t="s">
+        <v>253</v>
+      </c>
+      <c r="B1656" s="3">
+        <v>40091</v>
+      </c>
+      <c r="E1656">
+        <v>2867.8917952467773</v>
+      </c>
+      <c r="H1656">
+        <v>1.0162091832159482E-2</v>
+      </c>
+      <c r="J1656">
+        <v>4657.4235919999992</v>
+      </c>
+      <c r="K1656">
+        <v>0.28743282494647676</v>
+      </c>
+      <c r="L1656">
+        <v>1349.5832101321867</v>
+      </c>
+    </row>
+    <row r="1657" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A1657" t="s">
+        <v>254</v>
+      </c>
+      <c r="B1657" s="3">
+        <v>40091</v>
+      </c>
+      <c r="E1657">
+        <v>2573.0319181254995</v>
+      </c>
+      <c r="H1657">
+        <v>1.6430532835820896E-2</v>
+      </c>
+      <c r="J1657">
+        <v>1335.7150109999998</v>
+      </c>
+      <c r="K1657">
+        <v>0.39148921129009645</v>
+      </c>
+      <c r="L1657">
+        <v>522.04060890764003</v>
+      </c>
+    </row>
+    <row r="1658" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A1658" t="s">
+        <v>255</v>
+      </c>
+      <c r="B1658" s="3">
+        <v>40091</v>
+      </c>
+      <c r="E1658">
+        <v>2705.6593888435555</v>
+      </c>
+      <c r="H1658">
+        <v>1.3605341583013299E-2</v>
+      </c>
+      <c r="J1658">
+        <v>4881.8555217777775</v>
+      </c>
+      <c r="K1658">
+        <v>0.21661150026263901</v>
+      </c>
+      <c r="L1658">
+        <v>1035.0295070275265</v>
+      </c>
+    </row>
+    <row r="1659" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A1659" t="s">
+        <v>256</v>
+      </c>
+      <c r="B1659" s="3">
+        <v>40091</v>
+      </c>
+      <c r="E1659">
+        <v>3811.4889226531777</v>
+      </c>
+      <c r="H1659">
+        <v>1.1975402147670513E-2</v>
+      </c>
+      <c r="J1659">
+        <v>5657.838184555555</v>
+      </c>
+      <c r="K1659">
+        <v>0.33527211768103216</v>
+      </c>
+      <c r="L1659">
+        <v>1921.5171187598003</v>
+      </c>
+    </row>
+    <row r="1660" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A1660" t="s">
+        <v>257</v>
+      </c>
+      <c r="B1660" s="3">
+        <v>40091</v>
+      </c>
+      <c r="E1660">
+        <v>2023.2545671463995</v>
+      </c>
+      <c r="H1660">
+        <v>2.1586162797834044E-2</v>
+      </c>
+      <c r="J1660">
+        <v>866.27025800000001</v>
+      </c>
+      <c r="K1660">
+        <v>0.30325714378364355</v>
+      </c>
+      <c r="L1660">
+        <v>262.70264418579995</v>
+      </c>
+    </row>
+    <row r="1661" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A1661" t="s">
+        <v>258</v>
+      </c>
+      <c r="B1661" s="3">
+        <v>40091</v>
+      </c>
+      <c r="E1661">
+        <v>2389.8856630119994</v>
+      </c>
+      <c r="H1661">
+        <v>1.6812792938310235E-2</v>
+      </c>
+      <c r="J1661">
+        <v>4785.5818682222225</v>
+      </c>
+      <c r="K1661">
+        <v>0.20698140310773078</v>
+      </c>
+      <c r="L1661">
+        <v>1039.1410316262889</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E1633"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Tests/Validation/Maize/Observations/MaizeObservations.xlsx
+++ b/Tests/Validation/Maize/Observations/MaizeObservations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Repos\APSIMX\Tests\Validation\Maize\Observations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F026255-F864-4F5B-A7E6-DC30CF17D577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{361F2ED1-6012-42DC-8753-1AC2A4B67DAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -568,9 +568,6 @@
     <t>Maize.Leaf.Dead.Wt</t>
   </si>
   <si>
-    <t>Maize.Structure.FinalLeafNumber</t>
-  </si>
-  <si>
     <t>Maize.Grain.N</t>
   </si>
   <si>
@@ -770,6 +767,9 @@
   </si>
   <si>
     <t>Maize.Leaf.Tips</t>
+  </si>
+  <si>
+    <t>Maize.Leaf.FinalLeafNumber</t>
   </si>
 </sst>
 </file>
@@ -1186,10 +1186,10 @@
   <dimension ref="A1:BU1635"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AD54" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P2" sqref="P2"/>
+      <selection pane="bottomRight" activeCell="AN80" sqref="AN80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1221,10 +1221,10 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J1" t="s">
         <v>173</v>
@@ -1236,25 +1236,25 @@
         <v>174</v>
       </c>
       <c r="M1" t="s">
+        <v>188</v>
+      </c>
+      <c r="N1" t="s">
         <v>189</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>190</v>
       </c>
-      <c r="O1" t="s">
-        <v>191</v>
-      </c>
       <c r="P1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="Q1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="R1" t="s">
         <v>175</v>
       </c>
       <c r="S1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="T1" t="s">
         <v>176</v>
@@ -1263,7 +1263,7 @@
         <v>7</v>
       </c>
       <c r="V1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="W1" t="s">
         <v>8</v>
@@ -1272,52 +1272,52 @@
         <v>9</v>
       </c>
       <c r="Y1" t="s">
+        <v>180</v>
+      </c>
+      <c r="Z1" t="s">
         <v>181</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>182</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>183</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>184</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
+        <v>186</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>194</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>192</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>201</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AM1" t="s">
         <v>185</v>
       </c>
-      <c r="AD1" t="s">
-        <v>187</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>195</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>193</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>197</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>202</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>198</v>
-      </c>
-      <c r="AK1" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>196</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>186</v>
-      </c>
       <c r="AN1" t="s">
-        <v>177</v>
+        <v>244</v>
       </c>
       <c r="AO1" t="s">
         <v>10</v>
@@ -1332,52 +1332,52 @@
         <v>13</v>
       </c>
       <c r="AS1" t="s">
+        <v>226</v>
+      </c>
+      <c r="AT1" t="s">
         <v>227</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>228</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>229</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>230</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>231</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>232</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>233</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
         <v>234</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BB1" t="s">
         <v>235</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BC1" t="s">
         <v>236</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BD1" t="s">
         <v>237</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BE1" t="s">
         <v>238</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BF1" t="s">
         <v>239</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BG1" t="s">
         <v>240</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BH1" t="s">
         <v>241</v>
-      </c>
-      <c r="BH1" t="s">
-        <v>242</v>
       </c>
       <c r="BI1" t="s">
         <v>14</v>
@@ -1410,18 +1410,18 @@
         <v>3</v>
       </c>
       <c r="BS1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="BT1" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="BT1" s="1" t="s">
+      <c r="BU1" s="1" t="s">
         <v>200</v>
-      </c>
-      <c r="BU1" s="1" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:73" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B2" s="3">
         <v>73051</v>
@@ -1455,7 +1455,7 @@
     </row>
     <row r="3" spans="1:73" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B3" s="3">
         <v>73051</v>
@@ -1489,7 +1489,7 @@
     </row>
     <row r="4" spans="1:73" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B4" s="3">
         <v>73051</v>
@@ -1523,7 +1523,7 @@
     </row>
     <row r="5" spans="1:73" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B5" s="3">
         <v>73051</v>
@@ -1557,7 +1557,7 @@
     </row>
     <row r="6" spans="1:73" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B6" s="3">
         <v>73051</v>
@@ -1591,7 +1591,7 @@
     </row>
     <row r="7" spans="1:73" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B7" s="3">
         <v>73051</v>
@@ -1625,7 +1625,7 @@
     </row>
     <row r="8" spans="1:73" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B8" s="3">
         <v>73051</v>
@@ -1659,7 +1659,7 @@
     </row>
     <row r="9" spans="1:73" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B9" s="3">
         <v>73051</v>
@@ -1693,7 +1693,7 @@
     </row>
     <row r="10" spans="1:73" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B10" s="3">
         <v>73051</v>
@@ -1727,7 +1727,7 @@
     </row>
     <row r="11" spans="1:73" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B11" s="3">
         <v>73051</v>
@@ -1761,7 +1761,7 @@
     </row>
     <row r="12" spans="1:73" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B12" s="3">
         <v>73051</v>
@@ -1795,7 +1795,7 @@
     </row>
     <row r="13" spans="1:73" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B13" s="3">
         <v>73051</v>
@@ -1829,7 +1829,7 @@
     </row>
     <row r="14" spans="1:73" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B14" s="3">
         <v>73051</v>
@@ -1863,7 +1863,7 @@
     </row>
     <row r="15" spans="1:73" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B15" s="3">
         <v>73051</v>
@@ -1897,7 +1897,7 @@
     </row>
     <row r="16" spans="1:73" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B16" s="3">
         <v>73051</v>
@@ -1931,7 +1931,7 @@
     </row>
     <row r="17" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B17" s="3">
         <v>73051</v>
@@ -1965,7 +1965,7 @@
     </row>
     <row r="18" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B18" s="3">
         <v>73051</v>
@@ -1999,7 +1999,7 @@
     </row>
     <row r="19" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B19" s="3">
         <v>73051</v>
@@ -2033,7 +2033,7 @@
     </row>
     <row r="20" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B20" s="3">
         <v>73051</v>
@@ -2067,7 +2067,7 @@
     </row>
     <row r="21" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B21" s="3">
         <v>73051</v>
@@ -2101,7 +2101,7 @@
     </row>
     <row r="22" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B22" s="3">
         <v>73051</v>
@@ -2135,7 +2135,7 @@
     </row>
     <row r="23" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B23" s="3">
         <v>73051</v>
@@ -2169,7 +2169,7 @@
     </row>
     <row r="24" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B24" s="3">
         <v>73051</v>
@@ -2203,7 +2203,7 @@
     </row>
     <row r="25" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B25" s="3">
         <v>73051</v>

--- a/Tests/Validation/Maize/Observations/MaizeObservations.xlsx
+++ b/Tests/Validation/Maize/Observations/MaizeObservations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ilhuber\NextGen\ApsimX\Tests\Validation\Maize\Observations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3998A2DB-BF50-4B40-AEC7-2CC179D1EF51}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07EF50CA-A154-4CB9-BB8F-5F5281AC086C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1905" yWindow="1185" windowWidth="21915" windowHeight="13215" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2378" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2430" uniqueCount="297">
   <si>
     <t>AreaLargestLeaf</t>
   </si>
@@ -1342,10 +1342,10 @@
   <dimension ref="A1:BU1685"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C1700" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="L1597" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J1678" sqref="J1678"/>
+      <selection pane="bottomRight" activeCell="AC1634" sqref="AC1634"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40986,6 +40986,9 @@
       <c r="L1634">
         <v>1240.71</v>
       </c>
+      <c r="AC1634" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="1635" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A1635" t="s">
@@ -41003,6 +41006,9 @@
       <c r="L1635">
         <v>909.7700000000001</v>
       </c>
+      <c r="AC1635" t="s">
+        <v>162</v>
+      </c>
       <c r="AJ1635">
         <v>0.7</v>
       </c>
@@ -41023,6 +41029,9 @@
       <c r="L1636">
         <v>671.6</v>
       </c>
+      <c r="AC1636" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="1637" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A1637" t="s">
@@ -41040,6 +41049,9 @@
       <c r="L1637">
         <v>436.53999999999996</v>
       </c>
+      <c r="AC1637" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="1638" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A1638" t="s">
@@ -41057,6 +41069,9 @@
       <c r="L1638">
         <v>1166.27</v>
       </c>
+      <c r="AC1638" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="1639" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A1639" t="s">
@@ -41074,6 +41089,9 @@
       <c r="L1639">
         <v>856.82</v>
       </c>
+      <c r="AC1639" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="1640" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A1640" t="s">
@@ -41091,6 +41109,9 @@
       <c r="L1640">
         <v>597.15</v>
       </c>
+      <c r="AC1640" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="1641" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A1641" t="s">
@@ -41108,6 +41129,9 @@
       <c r="L1641">
         <v>1184.46</v>
       </c>
+      <c r="AC1641" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="1642" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A1642" t="s">
@@ -41125,6 +41149,9 @@
       <c r="L1642">
         <v>1132.6299999999999</v>
       </c>
+      <c r="AC1642" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="1643" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A1643" t="s">
@@ -41142,6 +41169,9 @@
       <c r="L1643">
         <v>964.45</v>
       </c>
+      <c r="AC1643" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="1644" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A1644" t="s">
@@ -41159,6 +41189,9 @@
       <c r="L1644">
         <v>973.11</v>
       </c>
+      <c r="AC1644" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="1645" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A1645" t="s">
@@ -41176,6 +41209,9 @@
       <c r="L1645">
         <v>674.53</v>
       </c>
+      <c r="AC1645" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="1646" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A1646" t="s">
@@ -41193,6 +41229,9 @@
       <c r="L1646">
         <v>477.18999999999994</v>
       </c>
+      <c r="AC1646" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="1647" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A1647" t="s">
@@ -41210,6 +41249,9 @@
       <c r="L1647">
         <v>1184.7</v>
       </c>
+      <c r="AC1647" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="1648" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A1648" t="s">
@@ -41227,8 +41269,11 @@
       <c r="L1648">
         <v>884.07999999999993</v>
       </c>
-    </row>
-    <row r="1649" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="AC1648" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1649" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1649" t="s">
         <v>260</v>
       </c>
@@ -41244,8 +41289,11 @@
       <c r="L1649">
         <v>647.75</v>
       </c>
-    </row>
-    <row r="1650" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="AC1649" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1650" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1650" t="s">
         <v>261</v>
       </c>
@@ -41261,8 +41309,11 @@
       <c r="L1650">
         <v>1182.94</v>
       </c>
-    </row>
-    <row r="1651" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="AC1650" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1651" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1651" t="s">
         <v>262</v>
       </c>
@@ -41278,8 +41329,11 @@
       <c r="L1651">
         <v>1138.6600000000001</v>
       </c>
-    </row>
-    <row r="1652" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="AC1651" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1652" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1652" t="s">
         <v>263</v>
       </c>
@@ -41295,8 +41349,11 @@
       <c r="L1652">
         <v>952.68999999999994</v>
       </c>
-    </row>
-    <row r="1653" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="AC1652" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1653" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1653" t="s">
         <v>264</v>
       </c>
@@ -41312,8 +41369,11 @@
       <c r="L1653">
         <v>1174.1100000000001</v>
       </c>
-    </row>
-    <row r="1654" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="AC1653" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1654" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1654" t="s">
         <v>265</v>
       </c>
@@ -41329,8 +41389,11 @@
       <c r="L1654">
         <v>878.43999999999994</v>
       </c>
-    </row>
-    <row r="1655" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="AC1654" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1655" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1655" t="s">
         <v>266</v>
       </c>
@@ -41346,8 +41409,11 @@
       <c r="L1655">
         <v>652.04</v>
       </c>
-    </row>
-    <row r="1656" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="AC1655" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1656" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1656" t="s">
         <v>267</v>
       </c>
@@ -41363,8 +41429,11 @@
       <c r="L1656">
         <v>461.82</v>
       </c>
-    </row>
-    <row r="1657" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="AC1656" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1657" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1657" t="s">
         <v>268</v>
       </c>
@@ -41380,8 +41449,11 @@
       <c r="L1657">
         <v>1062.3899999999999</v>
       </c>
-    </row>
-    <row r="1658" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="AC1657" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1658" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1658" t="s">
         <v>269</v>
       </c>
@@ -41397,8 +41469,11 @@
       <c r="L1658">
         <v>867.46</v>
       </c>
-    </row>
-    <row r="1659" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="AC1658" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1659" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1659" t="s">
         <v>270</v>
       </c>
@@ -41414,8 +41489,11 @@
       <c r="L1659">
         <v>639.43999999999994</v>
       </c>
-    </row>
-    <row r="1660" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="AC1659" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1660" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1660" t="s">
         <v>271</v>
       </c>
@@ -41431,8 +41509,11 @@
       <c r="L1660">
         <v>1140.75</v>
       </c>
-    </row>
-    <row r="1661" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="AC1660" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1661" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1661" t="s">
         <v>272</v>
       </c>
@@ -41448,8 +41529,11 @@
       <c r="L1661">
         <v>1072.3200000000002</v>
       </c>
-    </row>
-    <row r="1662" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="AC1661" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1662" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1662" t="s">
         <v>273</v>
       </c>
@@ -41465,8 +41549,11 @@
       <c r="L1662">
         <v>953.32</v>
       </c>
-    </row>
-    <row r="1663" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="AC1662" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1663" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1663" t="s">
         <v>274</v>
       </c>
@@ -41482,8 +41569,11 @@
       <c r="L1663">
         <v>951.08999999999992</v>
       </c>
-    </row>
-    <row r="1664" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="AC1663" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1664" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1664" t="s">
         <v>275</v>
       </c>
@@ -41499,8 +41589,11 @@
       <c r="L1664">
         <v>619.25</v>
       </c>
-    </row>
-    <row r="1665" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="AC1664" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1665" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1665" t="s">
         <v>276</v>
       </c>
@@ -41516,8 +41609,11 @@
       <c r="L1665">
         <v>456.18999999999994</v>
       </c>
-    </row>
-    <row r="1666" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="AC1665" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1666" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1666" t="s">
         <v>277</v>
       </c>
@@ -41533,8 +41629,11 @@
       <c r="L1666">
         <v>1076.6600000000001</v>
       </c>
-    </row>
-    <row r="1667" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="AC1666" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1667" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1667" t="s">
         <v>278</v>
       </c>
@@ -41550,8 +41649,11 @@
       <c r="L1667">
         <v>845.92000000000007</v>
       </c>
-    </row>
-    <row r="1668" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="AC1667" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1668" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1668" t="s">
         <v>279</v>
       </c>
@@ -41567,8 +41669,11 @@
       <c r="L1668">
         <v>633.28</v>
       </c>
-    </row>
-    <row r="1669" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="AC1668" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1669" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1669" t="s">
         <v>280</v>
       </c>
@@ -41584,8 +41689,11 @@
       <c r="L1669">
         <v>1129.17</v>
       </c>
-    </row>
-    <row r="1670" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="AC1669" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1670" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1670" t="s">
         <v>281</v>
       </c>
@@ -41601,8 +41709,11 @@
       <c r="L1670">
         <v>1079.54</v>
       </c>
-    </row>
-    <row r="1671" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="AC1670" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1671" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1671" t="s">
         <v>282</v>
       </c>
@@ -41618,8 +41729,11 @@
       <c r="L1671">
         <v>947.42000000000007</v>
       </c>
-    </row>
-    <row r="1672" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="AC1671" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1672" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1672" t="s">
         <v>283</v>
       </c>
@@ -41629,8 +41743,11 @@
       <c r="L1672">
         <v>970</v>
       </c>
-    </row>
-    <row r="1673" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="AC1672" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1673" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1673" t="s">
         <v>284</v>
       </c>
@@ -41640,8 +41757,11 @@
       <c r="L1673">
         <v>955</v>
       </c>
-    </row>
-    <row r="1674" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="AC1673" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1674" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1674" t="s">
         <v>285</v>
       </c>
@@ -41651,8 +41771,11 @@
       <c r="L1674">
         <v>872</v>
       </c>
-    </row>
-    <row r="1675" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="AC1674" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1675" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1675" t="s">
         <v>286</v>
       </c>
@@ -41662,8 +41785,11 @@
       <c r="L1675">
         <v>690</v>
       </c>
-    </row>
-    <row r="1676" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="AC1675" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1676" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1676" t="s">
         <v>287</v>
       </c>
@@ -41673,8 +41799,11 @@
       <c r="L1676">
         <v>1436</v>
       </c>
-    </row>
-    <row r="1677" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="AC1676" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1677" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1677" t="s">
         <v>288</v>
       </c>
@@ -41684,8 +41813,11 @@
       <c r="L1677">
         <v>1319</v>
       </c>
-    </row>
-    <row r="1678" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="AC1677" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1678" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1678" t="s">
         <v>289</v>
       </c>
@@ -41695,8 +41827,11 @@
       <c r="L1678">
         <v>1137</v>
       </c>
-    </row>
-    <row r="1679" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="AC1678" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1679" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1679" t="s">
         <v>290</v>
       </c>
@@ -41706,8 +41841,11 @@
       <c r="L1679">
         <v>919</v>
       </c>
-    </row>
-    <row r="1680" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="AC1679" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1680" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1680" t="s">
         <v>291</v>
       </c>
@@ -41717,8 +41855,11 @@
       <c r="L1680">
         <v>811.99999999999989</v>
       </c>
-    </row>
-    <row r="1681" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="AC1680" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1681" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1681" t="s">
         <v>292</v>
       </c>
@@ -41728,8 +41869,11 @@
       <c r="L1681">
         <v>721</v>
       </c>
-    </row>
-    <row r="1682" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="AC1681" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1682" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1682" t="s">
         <v>293</v>
       </c>
@@ -41739,8 +41883,11 @@
       <c r="L1682">
         <v>484</v>
       </c>
-    </row>
-    <row r="1683" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="AC1682" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1683" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1683" t="s">
         <v>294</v>
       </c>
@@ -41750,8 +41897,11 @@
       <c r="L1683">
         <v>740</v>
       </c>
-    </row>
-    <row r="1684" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="AC1683" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1684" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1684" t="s">
         <v>295</v>
       </c>
@@ -41761,8 +41911,11 @@
       <c r="L1684">
         <v>396</v>
       </c>
-    </row>
-    <row r="1685" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="AC1684" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1685" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1685" t="s">
         <v>296</v>
       </c>
@@ -41771,6 +41924,9 @@
       </c>
       <c r="L1685">
         <v>432</v>
+      </c>
+      <c r="AC1685" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>
